--- a/Financial Analysis/XYZ.xlsx
+++ b/Financial Analysis/XYZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3371015-C8DF-4F26-95AE-E75364B84092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BC3EE2-4A29-4B09-B8B2-B6F531BFAF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{864B2951-E2B1-4041-AA94-9A7C8DF434B2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>XYZ</t>
   </si>
@@ -265,7 +265,7 @@
     <t>Consensus</t>
   </si>
   <si>
-    <t>Slightly overvalued</t>
+    <t>Slightly undervalued</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,8 +344,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,14 +415,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -441,7 +439,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9441180" y="15240"/>
+          <a:off x="10058400" y="15240"/>
           <a:ext cx="0" cy="10515600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -768,7 +766,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,17 +793,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>52.7</v>
+        <v>44.8</v>
       </c>
       <c r="E3" s="5">
-        <v>45758</v>
+        <v>45779</v>
       </c>
       <c r="F3" s="5">
         <f ca="1">TODAY()</f>
-        <v>45758</v>
+        <v>45782</v>
       </c>
       <c r="G3" s="5">
-        <v>45778</v>
+        <v>45870</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -813,8 +811,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <f>559.4+60</f>
-        <v>619.4</v>
+        <f>555+60</f>
+        <v>615</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -823,7 +824,7 @@
       </c>
       <c r="D5" s="3">
         <f>D3*D4</f>
-        <v>32642.38</v>
+        <v>27552</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -831,8 +832,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <f>8075.2+403.4+472</f>
-        <v>8950.6</v>
+        <f>7088.8</f>
+        <v>7088.8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -840,8 +844,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <f>999.5+5105.9</f>
-        <v>6105.4</v>
+        <f>5108.4</f>
+        <v>5108.3999999999996</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -850,7 +857,7 @@
       </c>
       <c r="D8" s="3">
         <f>D6-D7</f>
-        <v>2845.2000000000007</v>
+        <v>1980.4000000000005</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -859,7 +866,7 @@
       </c>
       <c r="D9" s="3">
         <f>D5-D8</f>
-        <v>29797.18</v>
+        <v>25571.599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -873,17 +880,17 @@
   <dimension ref="B2:EI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN43" sqref="AN43"/>
+      <selection pane="bottomRight" activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
@@ -1018,20 +1025,19 @@
         <v>1677.0999999999992</v>
       </c>
       <c r="O3" s="3">
-        <f>K3*1.05</f>
-        <v>1586.7600000000002</v>
+        <v>1550.7</v>
       </c>
       <c r="P3" s="3">
-        <f>L3*1.04</f>
-        <v>1781.52</v>
+        <f>L3*1.01</f>
+        <v>1730.13</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:R3" si="0">M3*1.04</f>
-        <v>1780.8960000000002</v>
+        <f t="shared" ref="Q3" si="0">M3*1.02</f>
+        <v>1746.6480000000001</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" si="0"/>
-        <v>1744.1839999999993</v>
+        <f>N3*1.02</f>
+        <v>1710.6419999999991</v>
       </c>
       <c r="T3" s="3">
         <v>3081.1</v>
@@ -1053,47 +1059,47 @@
       </c>
       <c r="Z3" s="3">
         <f>SUM(O3:R3)</f>
-        <v>6893.36</v>
+        <v>6738.119999999999</v>
       </c>
       <c r="AA3" s="3">
-        <f>Z3*1.03</f>
-        <v>7100.1607999999997</v>
+        <f>Z3*1.02</f>
+        <v>6872.8823999999995</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" ref="AB3:AJ3" si="1">AA3*1.03</f>
-        <v>7313.1656240000002</v>
+        <f>AA3*1.02</f>
+        <v>7010.340048</v>
       </c>
       <c r="AC3" s="3">
         <f>AB3*1.02</f>
-        <v>7459.4289364800006</v>
+        <v>7150.5468489599998</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" ref="AD3:AJ3" si="2">AC3*1.02</f>
-        <v>7608.6175152096012</v>
+        <f t="shared" ref="AD3:AJ3" si="1">AC3*1.02</f>
+        <v>7293.5577859391997</v>
       </c>
       <c r="AE3" s="3">
-        <f t="shared" si="2"/>
-        <v>7760.7898655137933</v>
+        <f t="shared" si="1"/>
+        <v>7439.4289416579841</v>
       </c>
       <c r="AF3" s="3">
-        <f t="shared" si="2"/>
-        <v>7916.0056628240691</v>
+        <f t="shared" si="1"/>
+        <v>7588.2175204911437</v>
       </c>
       <c r="AG3" s="3">
-        <f t="shared" si="2"/>
-        <v>8074.3257760805509</v>
+        <f t="shared" si="1"/>
+        <v>7739.9818709009669</v>
       </c>
       <c r="AH3" s="3">
-        <f t="shared" si="2"/>
-        <v>8235.8122916021621</v>
+        <f t="shared" si="1"/>
+        <v>7894.7815083189862</v>
       </c>
       <c r="AI3" s="3">
-        <f t="shared" si="2"/>
-        <v>8400.5285374342056</v>
+        <f t="shared" si="1"/>
+        <v>8052.6771384853664</v>
       </c>
       <c r="AJ3" s="3">
-        <f t="shared" si="2"/>
-        <v>8568.5391081828893</v>
+        <f t="shared" si="1"/>
+        <v>8213.7306812550742</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
@@ -1123,24 +1129,23 @@
         <v>1797.9</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N6" si="3">Y4-M4-L4-K4</f>
+        <f t="shared" ref="N4:N6" si="2">Y4-M4-L4-K4</f>
         <v>1896.6999999999996</v>
       </c>
       <c r="O4" s="3">
-        <f>K4*1.15</f>
-        <v>1934.6449999999998</v>
+        <v>1891</v>
       </c>
       <c r="P4" s="3">
-        <f>L4*1.14</f>
-        <v>2038.2059999999999</v>
+        <f>L4*1.1</f>
+        <v>1966.6900000000003</v>
       </c>
       <c r="Q4" s="3">
-        <f>M4*1.14</f>
-        <v>2049.6059999999998</v>
+        <f>M4*1.1</f>
+        <v>1977.6900000000003</v>
       </c>
       <c r="R4" s="3">
-        <f>N4*1.12</f>
-        <v>2124.3039999999996</v>
+        <f>N4*1.08</f>
+        <v>2048.4359999999997</v>
       </c>
       <c r="T4" s="3">
         <v>1031.5</v>
@@ -1161,48 +1166,48 @@
         <v>7164.8</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z6" si="4">SUM(O4:R4)</f>
-        <v>8146.7609999999986</v>
+        <f t="shared" ref="Z4:Z6" si="3">SUM(O4:R4)</f>
+        <v>7883.8160000000007</v>
       </c>
       <c r="AA4" s="3">
-        <f>Z4*1.1</f>
-        <v>8961.4370999999992</v>
+        <f>Z4*1.08</f>
+        <v>8514.5212800000008</v>
       </c>
       <c r="AB4" s="3">
-        <f>AA4*1.08</f>
-        <v>9678.3520680000001</v>
+        <f>AA4*1.06</f>
+        <v>9025.3925568000013</v>
       </c>
       <c r="AC4" s="3">
-        <f>AB4*1.06</f>
-        <v>10259.05319208</v>
+        <f>AB4*1.05</f>
+        <v>9476.6621846400012</v>
       </c>
       <c r="AD4" s="3">
-        <f>AC4*1.05</f>
-        <v>10772.005851684002</v>
+        <f t="shared" ref="AD4" si="4">AC4*1.05</f>
+        <v>9950.4952938720016</v>
       </c>
       <c r="AE4" s="3">
-        <f t="shared" ref="AE4:AJ4" si="5">AD4*1.05</f>
-        <v>11310.606144268202</v>
+        <f>AD4*1.03</f>
+        <v>10249.010152688163</v>
       </c>
       <c r="AF4" s="3">
-        <f>AE4*1.03</f>
-        <v>11649.924328596249</v>
+        <f t="shared" ref="AF4" si="5">AE4*1.03</f>
+        <v>10556.480457268808</v>
       </c>
       <c r="AG4" s="3">
-        <f t="shared" ref="AG4:AJ4" si="6">AF4*1.03</f>
-        <v>11999.422058454136</v>
+        <f t="shared" ref="AG4" si="6">AF4*1.03</f>
+        <v>10873.174870986873</v>
       </c>
       <c r="AH4" s="3">
-        <f t="shared" si="6"/>
-        <v>12359.40472020776</v>
+        <f t="shared" ref="AH4" si="7">AG4*1.03</f>
+        <v>11199.370117116479</v>
       </c>
       <c r="AI4" s="3">
-        <f t="shared" si="6"/>
-        <v>12730.186861813992</v>
+        <f t="shared" ref="AI4" si="8">AH4*1.03</f>
+        <v>11535.351220629975</v>
       </c>
       <c r="AJ4" s="3">
-        <f t="shared" si="6"/>
-        <v>13112.092467668412</v>
+        <f t="shared" ref="AJ4" si="9">AI4*1.03</f>
+        <v>11881.411757248874</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.3">
@@ -1232,24 +1237,23 @@
         <v>36.799999999999997</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31.100000000000009</v>
       </c>
       <c r="O5" s="3">
-        <f>K5*0.95</f>
-        <v>30.875</v>
+        <v>28.7</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P5:R5" si="7">L5*0.95</f>
-        <v>40.85</v>
+        <f>L5*0.92</f>
+        <v>39.56</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="7"/>
-        <v>34.959999999999994</v>
+        <f t="shared" ref="Q5:R5" si="10">M5*0.92</f>
+        <v>33.856000000000002</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="7"/>
-        <v>29.545000000000005</v>
+        <f t="shared" si="10"/>
+        <v>28.612000000000009</v>
       </c>
       <c r="T5" s="3">
         <v>84.5</v>
@@ -1270,48 +1274,48 @@
         <v>143.4</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="4"/>
-        <v>136.22999999999999</v>
+        <f t="shared" si="3"/>
+        <v>130.72800000000001</v>
       </c>
       <c r="AA5" s="3">
-        <f>Z5*0.95</f>
-        <v>129.41849999999999</v>
+        <f>Z5*0.93</f>
+        <v>121.57704000000001</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AJ5" si="8">AA5*0.95</f>
-        <v>122.94757499999999</v>
+        <f t="shared" ref="AB5:AJ5" si="11">AA5*0.93</f>
+        <v>113.06664720000002</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="8"/>
-        <v>116.80019624999998</v>
+        <f t="shared" si="11"/>
+        <v>105.15198189600002</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="8"/>
-        <v>110.96018643749998</v>
+        <f t="shared" si="11"/>
+        <v>97.791343163280033</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="8"/>
-        <v>105.41217711562498</v>
+        <f t="shared" si="11"/>
+        <v>90.945949141850434</v>
       </c>
       <c r="AF5" s="3">
-        <f t="shared" si="8"/>
-        <v>100.14156825984374</v>
+        <f t="shared" si="11"/>
+        <v>84.579732701920904</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" si="8"/>
-        <v>95.134489846851551</v>
+        <f t="shared" si="11"/>
+        <v>78.659151412786443</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="8"/>
-        <v>90.377765354508966</v>
+        <f t="shared" si="11"/>
+        <v>73.153010813891399</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="8"/>
-        <v>85.858877086783508</v>
+        <f t="shared" si="11"/>
+        <v>68.032300056918999</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="8"/>
-        <v>81.565933232444323</v>
+        <f t="shared" si="11"/>
+        <v>63.270039052934671</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.3">
@@ -1341,12 +1345,11 @@
         <v>2428.6</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2427.8000000000006</v>
       </c>
       <c r="O6" s="3">
-        <f>K6*0.95</f>
-        <v>2594.5449999999996</v>
+        <v>2301.4</v>
       </c>
       <c r="P6" s="3">
         <f>L6*0.85</f>
@@ -1357,7 +1360,7 @@
         <v>1942.88</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ref="Q6:R6" si="9">N6*0.75</f>
+        <f t="shared" ref="R6" si="12">N6*0.75</f>
         <v>1820.8500000000004</v>
       </c>
       <c r="T6" s="3">
@@ -1379,48 +1382,48 @@
         <v>10199.200000000001</v>
       </c>
       <c r="Z6" s="3">
-        <f t="shared" si="4"/>
-        <v>8578.2200000000012</v>
+        <f t="shared" si="3"/>
+        <v>8285.0750000000007</v>
       </c>
       <c r="AA6" s="3">
         <f>Z6*1.1</f>
-        <v>9436.0420000000013</v>
+        <v>9113.5825000000023</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" ref="AB6:AJ6" si="10">AA6*1.1</f>
-        <v>10379.646200000003</v>
+        <f>AA6*1.08</f>
+        <v>9842.6691000000028</v>
       </c>
       <c r="AC6" s="3">
         <f>AB6*1.05</f>
-        <v>10898.628510000004</v>
+        <v>10334.802555000004</v>
       </c>
       <c r="AD6" s="3">
         <f>AC6*1.04</f>
-        <v>11334.573650400005</v>
+        <v>10748.194657200005</v>
       </c>
       <c r="AE6" s="3">
         <f>AD6*1.03</f>
-        <v>11674.610859912005</v>
+        <v>11070.640496916005</v>
       </c>
       <c r="AF6" s="3">
-        <f t="shared" ref="AF6:AJ6" si="11">AE6*1.03</f>
-        <v>12024.849185709365</v>
+        <f t="shared" ref="AF6:AJ6" si="13">AE6*1.03</f>
+        <v>11402.759711823484</v>
       </c>
       <c r="AG6" s="3">
-        <f t="shared" si="11"/>
-        <v>12385.594661280646</v>
+        <f t="shared" si="13"/>
+        <v>11744.84250317819</v>
       </c>
       <c r="AH6" s="3">
-        <f t="shared" si="11"/>
-        <v>12757.162501119064</v>
+        <f t="shared" si="13"/>
+        <v>12097.187778273536</v>
       </c>
       <c r="AI6" s="3">
-        <f t="shared" si="11"/>
-        <v>13139.877376152637</v>
+        <f t="shared" si="13"/>
+        <v>12460.103411621742</v>
       </c>
       <c r="AJ6" s="3">
-        <f t="shared" si="11"/>
-        <v>13534.073697437218</v>
+        <f t="shared" si="13"/>
+        <v>12833.906513970394</v>
       </c>
     </row>
     <row r="7" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1428,120 +1431,120 @@
         <v>31</v>
       </c>
       <c r="G7" s="8">
-        <f>SUM(G3:G6)</f>
+        <f t="shared" ref="G7:N7" si="14">SUM(G3:G6)</f>
         <v>4990.2000000000007</v>
       </c>
       <c r="H7" s="8">
-        <f>SUM(H3:H6)</f>
+        <f t="shared" si="14"/>
         <v>5535</v>
       </c>
       <c r="I7" s="8">
-        <f>SUM(I3:I6)</f>
+        <f t="shared" si="14"/>
         <v>5617.5</v>
       </c>
       <c r="J7" s="8">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" si="14"/>
         <v>5772.9</v>
       </c>
       <c r="K7" s="8">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="14"/>
         <v>5957.1</v>
       </c>
       <c r="L7" s="8">
-        <f>SUM(L3:L6)</f>
+        <f t="shared" si="14"/>
         <v>6155.6</v>
       </c>
       <c r="M7" s="8">
-        <f>SUM(M3:M6)</f>
+        <f t="shared" si="14"/>
         <v>5975.7000000000007</v>
       </c>
       <c r="N7" s="8">
-        <f>SUM(N3:N6)</f>
+        <f t="shared" si="14"/>
         <v>6032.6999999999989</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" ref="O7:R7" si="12">SUM(O3:O6)</f>
-        <v>6146.8249999999989</v>
+        <f t="shared" ref="O7:R7" si="15">SUM(O3:O6)</f>
+        <v>5771.7999999999993</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="12"/>
-        <v>6080.5209999999988</v>
+        <f t="shared" si="15"/>
+        <v>5956.3250000000007</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="12"/>
-        <v>5808.3420000000006</v>
+        <f t="shared" si="15"/>
+        <v>5701.0740000000005</v>
       </c>
       <c r="R7" s="8">
-        <f t="shared" si="12"/>
-        <v>5718.8829999999998</v>
+        <f t="shared" si="15"/>
+        <v>5608.5399999999991</v>
       </c>
       <c r="T7" s="8">
-        <f>SUM(T3:T6)</f>
+        <f t="shared" ref="T7:Z7" si="16">SUM(T3:T6)</f>
         <v>4713.6000000000004</v>
       </c>
       <c r="U7" s="8">
-        <f>SUM(U3:U6)</f>
+        <f t="shared" si="16"/>
         <v>9497.5999999999985</v>
       </c>
       <c r="V7" s="8">
-        <f>SUM(V3:V6)</f>
+        <f t="shared" si="16"/>
         <v>17661.099999999999</v>
       </c>
       <c r="W7" s="8">
-        <f>SUM(W3:W6)</f>
+        <f t="shared" si="16"/>
         <v>17531.599999999999</v>
       </c>
       <c r="X7" s="8">
-        <f>SUM(X3:X6)</f>
+        <f t="shared" si="16"/>
         <v>21915.599999999999</v>
       </c>
       <c r="Y7" s="8">
-        <f>SUM(Y3:Y6)</f>
+        <f t="shared" si="16"/>
         <v>24121.1</v>
       </c>
       <c r="Z7" s="8">
-        <f>SUM(Z3:Z6)</f>
-        <v>23754.571</v>
+        <f t="shared" si="16"/>
+        <v>23037.739000000001</v>
       </c>
       <c r="AA7" s="8">
-        <f t="shared" ref="AA7:AJ7" si="13">SUM(AA3:AA6)</f>
-        <v>25627.058400000002</v>
+        <f t="shared" ref="AA7:AJ7" si="17">SUM(AA3:AA6)</f>
+        <v>24622.563220000004</v>
       </c>
       <c r="AB7" s="8">
-        <f t="shared" si="13"/>
-        <v>27494.111467000002</v>
+        <f t="shared" si="17"/>
+        <v>25991.468352000004</v>
       </c>
       <c r="AC7" s="8">
-        <f t="shared" si="13"/>
-        <v>28733.910834810005</v>
+        <f t="shared" si="17"/>
+        <v>27067.163570496006</v>
       </c>
       <c r="AD7" s="8">
-        <f t="shared" si="13"/>
-        <v>29826.157203731109</v>
+        <f t="shared" si="17"/>
+        <v>28090.039080174487</v>
       </c>
       <c r="AE7" s="8">
-        <f t="shared" si="13"/>
-        <v>30851.419046809624</v>
+        <f t="shared" si="17"/>
+        <v>28850.025540404</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="13"/>
-        <v>31690.920745389529</v>
+        <f t="shared" si="17"/>
+        <v>29632.037422285357</v>
       </c>
       <c r="AG7" s="8">
-        <f t="shared" si="13"/>
-        <v>32554.476985662186</v>
+        <f t="shared" si="17"/>
+        <v>30436.658396478815</v>
       </c>
       <c r="AH7" s="8">
-        <f t="shared" si="13"/>
-        <v>33442.757278283498</v>
+        <f t="shared" si="17"/>
+        <v>31264.492414522891</v>
       </c>
       <c r="AI7" s="8">
-        <f t="shared" si="13"/>
-        <v>34356.451652487616</v>
+        <f t="shared" si="17"/>
+        <v>32116.164070794002</v>
       </c>
       <c r="AJ7" s="8">
-        <f t="shared" si="13"/>
-        <v>35296.271206520963</v>
+        <f t="shared" si="17"/>
+        <v>32992.318991527281</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.3">
@@ -1558,7 +1561,7 @@
         <v>984.7</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:J12" si="14">X8-I8-H8-G8</f>
+        <f t="shared" ref="J8:J12" si="18">X8-I8-H8-G8</f>
         <v>946.00000000000023</v>
       </c>
       <c r="K8" s="3">
@@ -1571,10 +1574,12 @@
         <v>1011.5</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N12" si="15">Y8-M8-L8-K8</f>
+        <f t="shared" ref="N8:N12" si="19">Y8-M8-L8-K8</f>
         <v>996.2</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>903.8</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1622,7 +1627,7 @@
         <v>259.3</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>272.49999999999989</v>
       </c>
       <c r="K9" s="3">
@@ -1635,10 +1640,12 @@
         <v>271.3</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>303.00000000000006</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>275</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1686,7 +1693,7 @@
         <v>78.3</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>56.499999999999986</v>
       </c>
       <c r="K10" s="3">
@@ -1699,10 +1706,12 @@
         <v>62.1</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>55.200000000000017</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>52.5</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1750,7 +1759,7 @@
         <v>2378.9</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2454.1000000000008</v>
       </c>
       <c r="K11" s="3">
@@ -1763,10 +1772,12 @@
         <v>2364.1</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2350.9999999999991</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>2236.1</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1814,7 +1825,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="K12" s="3">
@@ -1827,10 +1838,12 @@
         <v>17.2</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>14.7</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1869,63 +1882,66 @@
         <v>54</v>
       </c>
       <c r="G13" s="3">
-        <f>SUM(G8:G12)</f>
+        <f t="shared" ref="G13:O13" si="20">SUM(G8:G12)</f>
         <v>3275.6000000000004</v>
       </c>
       <c r="H13" s="3">
-        <f>SUM(H8:H12)</f>
+        <f t="shared" si="20"/>
         <v>3668.9</v>
       </c>
       <c r="I13" s="3">
-        <f>SUM(I8:I12)</f>
+        <f t="shared" si="20"/>
         <v>3719.1</v>
       </c>
       <c r="J13" s="3">
-        <f>SUM(J8:J12)</f>
+        <f t="shared" si="20"/>
         <v>3747.1000000000008</v>
       </c>
       <c r="K13" s="3">
-        <f>SUM(K8:K12)</f>
+        <f t="shared" si="20"/>
         <v>3862.7</v>
       </c>
       <c r="L13" s="3">
-        <f>SUM(L8:L12)</f>
+        <f t="shared" si="20"/>
         <v>3922.1</v>
       </c>
       <c r="M13" s="3">
-        <f>SUM(M8:M12)</f>
+        <f t="shared" si="20"/>
         <v>3726.2</v>
       </c>
       <c r="N13" s="3">
-        <f>SUM(N8:N12)</f>
+        <f t="shared" si="20"/>
         <v>3720.9999999999991</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <f t="shared" si="20"/>
+        <v>3482.0999999999995</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="T13" s="3">
-        <f>SUM(T8:T12)</f>
+        <f t="shared" ref="T13:Y13" si="21">SUM(T8:T12)</f>
         <v>2823.5999999999995</v>
       </c>
       <c r="U13" s="3">
-        <f>SUM(U8:U12)</f>
+        <f t="shared" si="21"/>
         <v>6764</v>
       </c>
       <c r="V13" s="3">
-        <f>SUM(V8:V12)</f>
+        <f t="shared" si="21"/>
         <v>13241.4</v>
       </c>
       <c r="W13" s="3">
-        <f>SUM(W8:W12)</f>
+        <f t="shared" si="21"/>
         <v>11539.6</v>
       </c>
       <c r="X13" s="3">
-        <f>SUM(X8:X12)</f>
+        <f t="shared" si="21"/>
         <v>14410.7</v>
       </c>
       <c r="Y13" s="3">
-        <f>SUM(Y8:Y12)</f>
+        <f t="shared" si="21"/>
         <v>15231.999999999998</v>
       </c>
       <c r="Z13" s="3"/>
@@ -1945,120 +1961,120 @@
         <v>37</v>
       </c>
       <c r="G14" s="8">
-        <f>G7-G13</f>
+        <f t="shared" ref="G14:O14" si="22">G7-G13</f>
         <v>1714.6000000000004</v>
       </c>
       <c r="H14" s="8">
-        <f>H7-H13</f>
+        <f t="shared" si="22"/>
         <v>1866.1</v>
       </c>
       <c r="I14" s="8">
-        <f>I7-I13</f>
+        <f t="shared" si="22"/>
         <v>1898.4</v>
       </c>
       <c r="J14" s="8">
-        <f>J7-J13</f>
+        <f t="shared" si="22"/>
         <v>2025.7999999999988</v>
       </c>
       <c r="K14" s="8">
-        <f>K7-K13</f>
+        <f t="shared" si="22"/>
         <v>2094.4000000000005</v>
       </c>
       <c r="L14" s="8">
-        <f>L7-L13</f>
+        <f t="shared" si="22"/>
         <v>2233.5000000000005</v>
       </c>
       <c r="M14" s="8">
-        <f>M7-M13</f>
+        <f t="shared" si="22"/>
         <v>2249.5000000000009</v>
       </c>
       <c r="N14" s="8">
-        <f>N7-N13</f>
+        <f t="shared" si="22"/>
         <v>2311.6999999999998</v>
       </c>
       <c r="O14" s="8">
-        <f>O7*0.35</f>
-        <v>2151.3887499999996</v>
+        <f t="shared" si="22"/>
+        <v>2289.6999999999998</v>
       </c>
       <c r="P14" s="8">
         <f>P7*0.36</f>
-        <v>2188.9875599999996</v>
+        <v>2144.277</v>
       </c>
       <c r="Q14" s="8">
         <f>Q7*0.37</f>
-        <v>2149.0865400000002</v>
+        <v>2109.3973800000003</v>
       </c>
       <c r="R14" s="8">
         <f>R7*0.38</f>
-        <v>2173.1755399999997</v>
+        <v>2131.2451999999998</v>
       </c>
       <c r="T14" s="8">
-        <f>T7-T13</f>
+        <f t="shared" ref="T14:Y14" si="23">T7-T13</f>
         <v>1890.0000000000009</v>
       </c>
       <c r="U14" s="8">
-        <f>U7-U13</f>
+        <f t="shared" si="23"/>
         <v>2733.5999999999985</v>
       </c>
       <c r="V14" s="8">
-        <f>V7-V13</f>
+        <f t="shared" si="23"/>
         <v>4419.6999999999989</v>
       </c>
       <c r="W14" s="8">
-        <f>W7-W13</f>
+        <f t="shared" si="23"/>
         <v>5991.9999999999982</v>
       </c>
       <c r="X14" s="8">
-        <f>X7-X13</f>
+        <f t="shared" si="23"/>
         <v>7504.8999999999978</v>
       </c>
       <c r="Y14" s="8">
-        <f>Y7-Y13</f>
+        <f t="shared" si="23"/>
         <v>8889.1</v>
       </c>
       <c r="Z14" s="8">
         <f>SUM(O14:R14)</f>
-        <v>8662.6383900000001</v>
+        <v>8674.6195800000005</v>
       </c>
       <c r="AA14" s="8">
-        <f>AA7*0.36</f>
-        <v>9225.7410240000008</v>
+        <f>AA7*0.39</f>
+        <v>9602.7996558000013</v>
       </c>
       <c r="AB14" s="8">
-        <f>AB7*0.37</f>
-        <v>10172.821242790002</v>
+        <f>AB7*0.4</f>
+        <v>10396.587340800002</v>
       </c>
       <c r="AC14" s="8">
-        <f>AC7*0.38</f>
-        <v>10918.886117227803</v>
+        <f t="shared" ref="AC14:AJ14" si="24">AC7*0.4</f>
+        <v>10826.865428198404</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" ref="AD14:AJ14" si="16">AD7*0.38</f>
-        <v>11333.939737417821</v>
+        <f t="shared" si="24"/>
+        <v>11236.015632069795</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="16"/>
-        <v>11723.539237787658</v>
+        <f t="shared" si="24"/>
+        <v>11540.010216161601</v>
       </c>
       <c r="AF14" s="8">
-        <f t="shared" si="16"/>
-        <v>12042.549883248021</v>
+        <f t="shared" si="24"/>
+        <v>11852.814968914143</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="16"/>
-        <v>12370.70125455163</v>
+        <f t="shared" si="24"/>
+        <v>12174.663358591526</v>
       </c>
       <c r="AH14" s="8">
-        <f t="shared" si="16"/>
-        <v>12708.247765747728</v>
+        <f t="shared" si="24"/>
+        <v>12505.796965809157</v>
       </c>
       <c r="AI14" s="8">
-        <f t="shared" si="16"/>
-        <v>13055.451627945295</v>
+        <f t="shared" si="24"/>
+        <v>12846.465628317601</v>
       </c>
       <c r="AJ14" s="8">
-        <f t="shared" si="16"/>
-        <v>13412.583058477967</v>
+        <f t="shared" si="24"/>
+        <v>13196.927596610913</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.3">
@@ -2075,7 +2091,7 @@
         <v>713.8</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:J20" si="17">X15-I15-H15-G15</f>
+        <f t="shared" ref="J15:J20" si="25">X15-I15-H15-G15</f>
         <v>685.4000000000002</v>
       </c>
       <c r="K15" s="3">
@@ -2088,23 +2104,22 @@
         <v>711</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" ref="N15:N20" si="18">Y15-M15-L15-K15</f>
+        <f t="shared" ref="N15:N20" si="26">Y15-M15-L15-K15</f>
         <v>769.6</v>
       </c>
       <c r="O15" s="3">
-        <f>K15*1.05</f>
-        <v>756.63000000000011</v>
+        <v>760.7</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" ref="P15:R15" si="19">L15*1.05</f>
+        <f t="shared" ref="P15:R15" si="27">L15*1.05</f>
         <v>748.86000000000013</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>746.55000000000007</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>808.08</v>
       </c>
       <c r="T15" s="3">
@@ -2126,48 +2141,48 @@
         <v>2914.4</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" ref="Z15:Z20" si="20">SUM(O15:R15)</f>
-        <v>3060.1200000000003</v>
+        <f t="shared" ref="Z15:Z20" si="28">SUM(O15:R15)</f>
+        <v>3064.19</v>
       </c>
       <c r="AA15" s="3">
         <f>Z15*1.05</f>
-        <v>3213.1260000000007</v>
+        <v>3217.3995</v>
       </c>
       <c r="AB15" s="3">
-        <f>AA15*1.05</f>
-        <v>3373.7823000000008</v>
+        <f>AA15*1.04</f>
+        <v>3346.09548</v>
       </c>
       <c r="AC15" s="3">
-        <f>AB15*1.04</f>
-        <v>3508.733592000001</v>
+        <f>AB15*1.03</f>
+        <v>3446.4783444</v>
       </c>
       <c r="AD15" s="3">
-        <f>AC15*1.03</f>
-        <v>3613.9955997600009</v>
+        <f t="shared" ref="AD15" si="29">AC15*1.03</f>
+        <v>3549.8726947320001</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" ref="AE15:AJ15" si="21">AD15*1.03</f>
-        <v>3722.4154677528009</v>
+        <f>AD15*1.02</f>
+        <v>3620.87014862664</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="21"/>
-        <v>3834.0879317853851</v>
+        <f t="shared" ref="AF15:AJ15" si="30">AE15*1.02</f>
+        <v>3693.2875515991727</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="21"/>
-        <v>3949.1105697389467</v>
+        <f t="shared" si="30"/>
+        <v>3767.1533026311563</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="21"/>
-        <v>4067.5838868311153</v>
+        <f t="shared" si="30"/>
+        <v>3842.4963686837796</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="21"/>
-        <v>4189.6114034360489</v>
+        <f t="shared" si="30"/>
+        <v>3919.3462960574552</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="21"/>
-        <v>4315.2997455391305</v>
+        <f t="shared" si="30"/>
+        <v>3997.7332219786044</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.3">
@@ -2184,7 +2199,7 @@
         <v>479.4</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>505.99999999999989</v>
       </c>
       <c r="K16" s="3">
@@ -2197,24 +2212,23 @@
         <v>511.8</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>521</v>
       </c>
       <c r="O16" s="3">
-        <f>O7*0.08</f>
-        <v>491.74599999999992</v>
+        <v>504.5</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" ref="P16:R16" si="22">P7*0.08</f>
-        <v>486.44167999999991</v>
+        <f t="shared" ref="P16" si="31">P7*0.08</f>
+        <v>476.50600000000009</v>
       </c>
       <c r="Q16" s="3">
         <f>Q7*0.09</f>
-        <v>522.75078000000008</v>
+        <v>513.09666000000004</v>
       </c>
       <c r="R16" s="3">
         <f>R7*0.09</f>
-        <v>514.69947000000002</v>
+        <v>504.76859999999988</v>
       </c>
       <c r="T16" s="3">
         <v>625.1</v>
@@ -2235,48 +2249,48 @@
         <v>1984.3</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="20"/>
-        <v>2015.6379299999999</v>
+        <f t="shared" si="28"/>
+        <v>1998.8712599999999</v>
       </c>
       <c r="AA16" s="3">
         <f>AA7*0.08</f>
-        <v>2050.1646720000003</v>
+        <v>1969.8050576000003</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AJ16" si="23">AB7*0.08</f>
-        <v>2199.5289173600004</v>
+        <f t="shared" ref="AB16:AJ16" si="32">AB7*0.08</f>
+        <v>2079.3174681600003</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="23"/>
-        <v>2298.7128667848006</v>
+        <f t="shared" si="32"/>
+        <v>2165.3730856396805</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="23"/>
-        <v>2386.0925762984889</v>
+        <f t="shared" si="32"/>
+        <v>2247.2031264139591</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="23"/>
-        <v>2468.1135237447702</v>
+        <f t="shared" si="32"/>
+        <v>2308.0020432323199</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="23"/>
-        <v>2535.2736596311624</v>
+        <f t="shared" si="32"/>
+        <v>2370.5629937828285</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="23"/>
-        <v>2604.3581588529751</v>
+        <f t="shared" si="32"/>
+        <v>2434.9326717183053</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="23"/>
-        <v>2675.42058226268</v>
+        <f t="shared" si="32"/>
+        <v>2501.1593931618313</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="23"/>
-        <v>2748.5161321990095</v>
+        <f t="shared" si="32"/>
+        <v>2569.2931256635202</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="23"/>
-        <v>2823.7016965216771</v>
+        <f t="shared" si="32"/>
+        <v>2639.3855193221825</v>
       </c>
     </row>
     <row r="17" spans="2:139" x14ac:dyDescent="0.3">
@@ -2293,7 +2307,7 @@
         <v>480.9</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>746.19999999999982</v>
       </c>
       <c r="K17" s="3">
@@ -2306,23 +2320,22 @@
         <v>475.9</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>728.3</v>
       </c>
       <c r="O17" s="3">
-        <f>K17*1.01</f>
-        <v>476.01300000000003</v>
+        <v>491.8</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" ref="P17:R17" si="24">L17*1.01</f>
-        <v>478.33600000000001</v>
+        <f>L17*1.04</f>
+        <v>492.54400000000004</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="24"/>
-        <v>480.65899999999999</v>
+        <f>M17*1.04</f>
+        <v>494.93599999999998</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="R17" si="33">N17*1.01</f>
         <v>735.58299999999997</v>
       </c>
       <c r="T17" s="3">
@@ -2344,48 +2357,48 @@
         <v>2149.1</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="20"/>
-        <v>2170.5909999999999</v>
+        <f t="shared" si="28"/>
+        <v>2214.8629999999998</v>
       </c>
       <c r="AA17" s="3">
         <f>Z17*1.02</f>
-        <v>2214.0028200000002</v>
+        <v>2259.1602599999997</v>
       </c>
       <c r="AB17" s="3">
-        <f>AA17*1.1</f>
-        <v>2435.4031020000002</v>
+        <f t="shared" ref="AB17:AJ17" si="34">AA17*1.02</f>
+        <v>2304.3434651999996</v>
       </c>
       <c r="AC17" s="3">
-        <f>AB17*1.05</f>
-        <v>2557.1732571000002</v>
+        <f t="shared" si="34"/>
+        <v>2350.4303345039998</v>
       </c>
       <c r="AD17" s="3">
-        <f>AC17*1.04</f>
-        <v>2659.4601873840002</v>
+        <f t="shared" si="34"/>
+        <v>2397.4389411940797</v>
       </c>
       <c r="AE17" s="3">
-        <f>AD17*1.03</f>
-        <v>2739.2439930055202</v>
+        <f t="shared" si="34"/>
+        <v>2445.3877200179613</v>
       </c>
       <c r="AF17" s="3">
-        <f>AE17*1.02</f>
-        <v>2794.0288728656305</v>
+        <f t="shared" si="34"/>
+        <v>2494.2954744183207</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" ref="AG17:AJ17" si="25">AF17*1.02</f>
-        <v>2849.909450322943</v>
+        <f t="shared" si="34"/>
+        <v>2544.1813839066872</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="25"/>
-        <v>2906.9076393294017</v>
+        <f t="shared" si="34"/>
+        <v>2595.0650115848211</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="25"/>
-        <v>2965.04579211599</v>
+        <f t="shared" si="34"/>
+        <v>2646.9663118165176</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="25"/>
-        <v>3024.3467079583097</v>
+        <f t="shared" si="34"/>
+        <v>2699.9056380528482</v>
       </c>
     </row>
     <row r="18" spans="2:139" x14ac:dyDescent="0.3">
@@ -2402,7 +2415,7 @@
         <v>177.3</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>175.70000000000002</v>
       </c>
       <c r="K18" s="3">
@@ -2415,11 +2428,11 @@
         <v>192.1</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>244.60000000000002</v>
       </c>
       <c r="O18" s="3">
-        <v>210</v>
+        <v>169.7</v>
       </c>
       <c r="P18" s="3">
         <v>210</v>
@@ -2449,48 +2462,48 @@
         <v>794.2</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="20"/>
-        <v>840</v>
+        <f t="shared" si="28"/>
+        <v>799.7</v>
       </c>
       <c r="AA18" s="3">
         <f>Z18*1.05</f>
-        <v>882</v>
+        <v>839.68500000000006</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AJ18" si="26">AA18*1.05</f>
-        <v>926.1</v>
+        <f t="shared" ref="AB18:AJ18" si="35">AA18*1.05</f>
+        <v>881.66925000000015</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="26"/>
-        <v>972.40500000000009</v>
+        <f t="shared" si="35"/>
+        <v>925.75271250000014</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="26"/>
-        <v>1021.0252500000001</v>
+        <f t="shared" si="35"/>
+        <v>972.04034812500015</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="26"/>
-        <v>1072.0765125000003</v>
+        <f t="shared" si="35"/>
+        <v>1020.6423655312502</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="26"/>
-        <v>1125.6803381250004</v>
+        <f t="shared" si="35"/>
+        <v>1071.6744838078127</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="26"/>
-        <v>1181.9643550312505</v>
+        <f t="shared" si="35"/>
+        <v>1125.2582079982035</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="26"/>
-        <v>1241.062572782813</v>
+        <f t="shared" si="35"/>
+        <v>1181.5211183981137</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="26"/>
-        <v>1303.1157014219536</v>
+        <f t="shared" si="35"/>
+        <v>1240.5971743180194</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="26"/>
-        <v>1368.2714864930515</v>
+        <f t="shared" si="35"/>
+        <v>1302.6270330339205</v>
       </c>
     </row>
     <row r="19" spans="2:139" x14ac:dyDescent="0.3">
@@ -2507,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K19" s="3">
@@ -2520,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O19" s="3">
@@ -2554,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA19" s="3">
@@ -2602,7 +2615,7 @@
         <v>57</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>42.999999999999993</v>
       </c>
       <c r="K20" s="3">
@@ -2615,11 +2628,11 @@
         <v>36</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>34.599999999999994</v>
       </c>
       <c r="O20" s="3">
-        <v>40</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P20" s="3">
         <v>40</v>
@@ -2649,8 +2662,8 @@
         <v>154.69999999999999</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="20"/>
-        <v>160</v>
+        <f t="shared" si="28"/>
+        <v>153.69999999999999</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -2688,120 +2701,120 @@
         <v>43</v>
       </c>
       <c r="G21" s="3">
-        <f>SUM(G15:G20)</f>
+        <f t="shared" ref="G21:N21" si="36">SUM(G15:G20)</f>
         <v>1720.7</v>
       </c>
       <c r="H21" s="3">
-        <f>SUM(H15:H20)</f>
+        <f t="shared" si="36"/>
         <v>1998.3000000000002</v>
       </c>
       <c r="I21" s="3">
-        <f>SUM(I15:I20)</f>
+        <f t="shared" si="36"/>
         <v>1908.3999999999999</v>
       </c>
       <c r="J21" s="3">
-        <f>SUM(J15:J20)</f>
+        <f t="shared" si="36"/>
         <v>2156.2999999999997</v>
       </c>
       <c r="K21" s="3">
-        <f>SUM(K15:K20)</f>
+        <f t="shared" si="36"/>
         <v>1844.8</v>
       </c>
       <c r="L21" s="3">
-        <f>SUM(L15:L20)</f>
+        <f t="shared" si="36"/>
         <v>1927</v>
       </c>
       <c r="M21" s="3">
-        <f>SUM(M15:M20)</f>
+        <f t="shared" si="36"/>
         <v>1926.7999999999997</v>
       </c>
       <c r="N21" s="3">
-        <f>SUM(N15:N20)</f>
+        <f t="shared" si="36"/>
         <v>2298.1</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" ref="O21:R21" si="27">SUM(O15:O20)</f>
-        <v>1974.3890000000001</v>
+        <f t="shared" ref="O21:R21" si="37">SUM(O15:O20)</f>
+        <v>1960.4</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="27"/>
-        <v>1963.63768</v>
+        <f t="shared" si="37"/>
+        <v>1967.9100000000003</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="27"/>
-        <v>1999.9597800000001</v>
+        <f t="shared" si="37"/>
+        <v>2004.58266</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="27"/>
-        <v>2308.36247</v>
+        <f t="shared" si="37"/>
+        <v>2298.4315999999999</v>
       </c>
       <c r="T21" s="3">
-        <f>SUM(T15:T20)</f>
+        <f t="shared" ref="T21:AA21" si="38">SUM(T15:T20)</f>
         <v>1863.2000000000003</v>
       </c>
       <c r="U21" s="3">
-        <f>SUM(U15:U20)</f>
+        <f t="shared" si="38"/>
         <v>2752.3</v>
       </c>
       <c r="V21" s="3">
-        <f>SUM(V15:V20)</f>
+        <f t="shared" si="38"/>
         <v>4258.7000000000007</v>
       </c>
       <c r="W21" s="3">
-        <f>SUM(W15:W20)</f>
+        <f t="shared" si="38"/>
         <v>6616.5000000000009</v>
       </c>
       <c r="X21" s="3">
-        <f>SUM(X15:X20)</f>
+        <f t="shared" si="38"/>
         <v>7783.7</v>
       </c>
       <c r="Y21" s="3">
-        <f>SUM(Y15:Y20)</f>
+        <f t="shared" si="38"/>
         <v>7996.6999999999989</v>
       </c>
       <c r="Z21" s="3">
-        <f>SUM(Z15:Z20)</f>
-        <v>8246.3489300000001</v>
+        <f t="shared" si="38"/>
+        <v>8231.3242599999994</v>
       </c>
       <c r="AA21" s="3">
-        <f>SUM(AA15:AA20)</f>
-        <v>8359.2934920000007</v>
+        <f t="shared" si="38"/>
+        <v>8286.0498176000001</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AJ21" si="28">SUM(AB15:AB20)</f>
-        <v>8934.8143193600008</v>
+        <f t="shared" ref="AB21:AJ21" si="39">SUM(AB15:AB20)</f>
+        <v>8611.4256633599998</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="28"/>
-        <v>9337.0247158848015</v>
+        <f t="shared" si="39"/>
+        <v>8888.0344770436805</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="28"/>
-        <v>9680.5736134424897</v>
+        <f t="shared" si="39"/>
+        <v>9166.5551104650385</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="28"/>
-        <v>10001.849497003092</v>
+        <f t="shared" si="39"/>
+        <v>9394.9022774081714</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="28"/>
-        <v>10289.070802407179</v>
+        <f t="shared" si="39"/>
+        <v>9629.8205036081345</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="28"/>
-        <v>10585.342533946116</v>
+        <f t="shared" si="39"/>
+        <v>9871.5255662543532</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="28"/>
-        <v>10890.974681206011</v>
+        <f t="shared" si="39"/>
+        <v>10120.241891828546</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="28"/>
-        <v>11206.289029173002</v>
+        <f t="shared" si="39"/>
+        <v>10376.202907855513</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="28"/>
-        <v>11531.619636512169</v>
+        <f t="shared" si="39"/>
+        <v>10639.651412387557</v>
       </c>
     </row>
     <row r="22" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2809,120 +2822,120 @@
         <v>44</v>
       </c>
       <c r="G22" s="8">
-        <f>G14-G21</f>
+        <f t="shared" ref="G22:N22" si="40">G14-G21</f>
         <v>-6.0999999999996817</v>
       </c>
       <c r="H22" s="8">
-        <f>H14-H21</f>
+        <f t="shared" si="40"/>
         <v>-132.20000000000027</v>
       </c>
       <c r="I22" s="8">
-        <f>I14-I21</f>
+        <f t="shared" si="40"/>
         <v>-9.9999999999997726</v>
       </c>
       <c r="J22" s="8">
-        <f>J14-J21</f>
+        <f t="shared" si="40"/>
         <v>-130.50000000000091</v>
       </c>
       <c r="K22" s="8">
-        <f>K14-K21</f>
+        <f t="shared" si="40"/>
         <v>249.60000000000059</v>
       </c>
       <c r="L22" s="8">
-        <f>L14-L21</f>
+        <f t="shared" si="40"/>
         <v>306.50000000000045</v>
       </c>
       <c r="M22" s="8">
-        <f>M14-M21</f>
+        <f t="shared" si="40"/>
         <v>322.70000000000118</v>
       </c>
       <c r="N22" s="8">
-        <f>N14-N21</f>
+        <f t="shared" si="40"/>
         <v>13.599999999999909</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" ref="O22:R22" si="29">O14-O21</f>
-        <v>176.99974999999949</v>
+        <f t="shared" ref="O22:R22" si="41">O14-O21</f>
+        <v>329.29999999999973</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="29"/>
-        <v>225.34987999999953</v>
+        <f t="shared" si="41"/>
+        <v>176.36699999999973</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="29"/>
-        <v>149.1267600000001</v>
+        <f t="shared" si="41"/>
+        <v>104.81472000000031</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="29"/>
-        <v>-135.1869300000003</v>
+        <f t="shared" si="41"/>
+        <v>-167.18640000000005</v>
       </c>
       <c r="T22" s="8">
-        <f>T14-T21</f>
+        <f t="shared" ref="T22:AA22" si="42">T14-T21</f>
         <v>26.800000000000637</v>
       </c>
       <c r="U22" s="8">
-        <f>U14-U21</f>
+        <f t="shared" si="42"/>
         <v>-18.700000000001637</v>
       </c>
       <c r="V22" s="8">
-        <f>V14-V21</f>
+        <f t="shared" si="42"/>
         <v>160.99999999999818</v>
       </c>
       <c r="W22" s="8">
-        <f>W14-W21</f>
+        <f t="shared" si="42"/>
         <v>-624.50000000000273</v>
       </c>
       <c r="X22" s="8">
-        <f>X14-X21</f>
+        <f t="shared" si="42"/>
         <v>-278.800000000002</v>
       </c>
       <c r="Y22" s="8">
-        <f>Y14-Y21</f>
+        <f t="shared" si="42"/>
         <v>892.40000000000146</v>
       </c>
       <c r="Z22" s="8">
-        <f>Z14-Z21</f>
-        <v>416.28945999999996</v>
+        <f t="shared" si="42"/>
+        <v>443.29532000000108</v>
       </c>
       <c r="AA22" s="8">
-        <f>AA14-AA21</f>
-        <v>866.44753200000014</v>
+        <f t="shared" si="42"/>
+        <v>1316.7498382000012</v>
       </c>
       <c r="AB22" s="8">
-        <f t="shared" ref="AB22:AJ22" si="30">AB14-AB21</f>
-        <v>1238.0069234300008</v>
+        <f t="shared" ref="AB22:AJ22" si="43">AB14-AB21</f>
+        <v>1785.1616774400027</v>
       </c>
       <c r="AC22" s="8">
-        <f t="shared" si="30"/>
-        <v>1581.8614013430015</v>
+        <f t="shared" si="43"/>
+        <v>1938.8309511547232</v>
       </c>
       <c r="AD22" s="8">
-        <f t="shared" si="30"/>
-        <v>1653.366123975331</v>
+        <f t="shared" si="43"/>
+        <v>2069.4605216047567</v>
       </c>
       <c r="AE22" s="8">
-        <f t="shared" si="30"/>
-        <v>1721.6897407845663</v>
+        <f t="shared" si="43"/>
+        <v>2145.1079387534301</v>
       </c>
       <c r="AF22" s="8">
-        <f t="shared" si="30"/>
-        <v>1753.4790808408416</v>
+        <f t="shared" si="43"/>
+        <v>2222.9944653060084</v>
       </c>
       <c r="AG22" s="8">
-        <f t="shared" si="30"/>
-        <v>1785.3587206055145</v>
+        <f t="shared" si="43"/>
+        <v>2303.1377923371729</v>
       </c>
       <c r="AH22" s="8">
-        <f t="shared" si="30"/>
-        <v>1817.2730845417173</v>
+        <f t="shared" si="43"/>
+        <v>2385.5550739806113</v>
       </c>
       <c r="AI22" s="8">
-        <f t="shared" si="30"/>
-        <v>1849.1625987722928</v>
+        <f t="shared" si="43"/>
+        <v>2470.2627204620876</v>
       </c>
       <c r="AJ22" s="8">
-        <f t="shared" si="30"/>
-        <v>1880.9634219657983</v>
+        <f t="shared" si="43"/>
+        <v>2557.2761842233558</v>
       </c>
     </row>
     <row r="23" spans="2:139" x14ac:dyDescent="0.3">
@@ -2939,7 +2952,7 @@
         <v>-21.4</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23:J25" si="31">X23-I23-H23-G23</f>
+        <f t="shared" ref="J23:J25" si="44">X23-I23-H23-G23</f>
         <v>-18.700000000000006</v>
       </c>
       <c r="K23" s="3">
@@ -2952,11 +2965,11 @@
         <v>13.8</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" ref="N23:N25" si="32">Y23-M23-L23-K23</f>
+        <f t="shared" ref="N23:N25" si="45">Y23-M23-L23-K23</f>
         <v>16.099999999999998</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -2986,8 +2999,8 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" ref="Z23:AA26" si="33">SUM(O23:R23)</f>
-        <v>0</v>
+        <f t="shared" ref="Z23:AA26" si="46">SUM(O23:R23)</f>
+        <v>17.2</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
@@ -3034,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>-207.1</v>
       </c>
       <c r="K24" s="3">
@@ -3047,11 +3060,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>-420.9</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>93.4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -3081,48 +3094,48 @@
         <v>-420.9</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="33"/>
-        <v>-300</v>
+        <f t="shared" si="46"/>
+        <v>-206.6</v>
       </c>
       <c r="AA24" s="3">
         <f>Z24*1.03</f>
-        <v>-309</v>
+        <v>-212.798</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" ref="AB24:AJ24" si="34">AA24*1.03</f>
-        <v>-318.27</v>
+        <f t="shared" ref="AB24:AJ24" si="47">AA24*1.03</f>
+        <v>-219.18194</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="34"/>
-        <v>-327.81810000000002</v>
+        <f t="shared" si="47"/>
+        <v>-225.75739820000001</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" si="34"/>
-        <v>-337.65264300000001</v>
+        <f t="shared" si="47"/>
+        <v>-232.53012014600003</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" si="34"/>
-        <v>-347.78222228999999</v>
+        <f t="shared" si="47"/>
+        <v>-239.50602375038002</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="34"/>
-        <v>-358.21568895870001</v>
+        <f t="shared" si="47"/>
+        <v>-246.69120446289142</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" si="34"/>
-        <v>-368.96215962746101</v>
+        <f t="shared" si="47"/>
+        <v>-254.09194059677816</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="34"/>
-        <v>-380.03102441628482</v>
+        <f t="shared" si="47"/>
+        <v>-261.71469881468153</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="34"/>
-        <v>-391.4319551487734</v>
+        <f t="shared" si="47"/>
+        <v>-269.56613977912195</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="34"/>
-        <v>-403.17491380323662</v>
+        <f t="shared" si="47"/>
+        <v>-277.65312397249562</v>
       </c>
     </row>
     <row r="25" spans="2:139" x14ac:dyDescent="0.3">
@@ -3139,7 +3152,7 @@
         <v>23.9</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>73</v>
       </c>
       <c r="K25" s="3">
@@ -3152,11 +3165,11 @@
         <v>-14.9</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>140</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="P25" s="3">
         <v>0</v>
@@ -3186,8 +3199,8 @@
         <v>-53.2</v>
       </c>
       <c r="Z25" s="3">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
@@ -3225,39 +3238,40 @@
         <v>48</v>
       </c>
       <c r="G26" s="3">
-        <f>SUM(G23:G25)</f>
+        <f t="shared" ref="G26:O26" si="48">SUM(G23:G25)</f>
         <v>-80.900000000000006</v>
       </c>
       <c r="H26" s="3">
-        <f>SUM(H23:H25)</f>
+        <f t="shared" si="48"/>
         <v>-18.5</v>
       </c>
       <c r="I26" s="3">
-        <f>SUM(I23:I25)</f>
+        <f t="shared" si="48"/>
         <v>2.5</v>
       </c>
       <c r="J26" s="3">
-        <f>SUM(J23:J25)</f>
+        <f t="shared" si="48"/>
         <v>-152.80000000000001</v>
       </c>
       <c r="K26" s="3">
-        <f>SUM(K23:K25)</f>
+        <f t="shared" si="48"/>
         <v>-256.5</v>
       </c>
       <c r="L26" s="3">
-        <f>SUM(L23:L25)</f>
+        <f t="shared" si="48"/>
         <v>57.6</v>
       </c>
       <c r="M26" s="3">
-        <f>SUM(M23:M25)</f>
+        <f t="shared" si="48"/>
         <v>-1.0999999999999996</v>
       </c>
       <c r="N26" s="3">
-        <f>SUM(N23:N25)</f>
+        <f t="shared" si="48"/>
         <v>-264.79999999999995</v>
       </c>
       <c r="O26" s="3">
-        <v>-20</v>
+        <f t="shared" si="48"/>
+        <v>102.30000000000001</v>
       </c>
       <c r="P26" s="3">
         <v>-20</v>
@@ -3269,72 +3283,72 @@
         <v>-20</v>
       </c>
       <c r="T26" s="3">
-        <f>SUM(T23:T25)</f>
+        <f t="shared" ref="T26:Y26" si="49">SUM(T23:T25)</f>
         <v>-351.59999999999997</v>
       </c>
       <c r="U26" s="3">
-        <f>SUM(U23:U25)</f>
+        <f t="shared" si="49"/>
         <v>-234.79999999999998</v>
       </c>
       <c r="V26" s="3">
-        <f>SUM(V23:V25)</f>
+        <f t="shared" si="49"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="W26" s="3">
-        <f>SUM(W23:W25)</f>
+        <f t="shared" si="49"/>
         <v>-59.2</v>
       </c>
       <c r="X26" s="3">
-        <f>SUM(X23:X25)</f>
+        <f t="shared" si="49"/>
         <v>-249.70000000000002</v>
       </c>
       <c r="Y26" s="3">
-        <f>SUM(Y23:Y25)</f>
+        <f t="shared" si="49"/>
         <v>-464.79999999999995</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="33"/>
-        <v>-80</v>
+        <f t="shared" si="46"/>
+        <v>42.300000000000011</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>-60</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" ref="AB26:AB29" si="35">SUM(Q26:T26)</f>
+        <f t="shared" ref="AB26" si="50">SUM(Q26:T26)</f>
         <v>-391.59999999999997</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" ref="AC26:AC29" si="36">SUM(R26:U26)</f>
+        <f t="shared" ref="AC26" si="51">SUM(R26:U26)</f>
         <v>-606.4</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" ref="AD26:AD29" si="37">SUM(S26:V26)</f>
+        <f t="shared" ref="AD26" si="52">SUM(S26:V26)</f>
         <v>-582.79999999999995</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" ref="AE26:AE29" si="38">SUM(T26:W26)</f>
+        <f t="shared" ref="AE26" si="53">SUM(T26:W26)</f>
         <v>-642</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26:AF29" si="39">SUM(U26:X26)</f>
+        <f t="shared" ref="AF26" si="54">SUM(U26:X26)</f>
         <v>-540.1</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" ref="AG26:AG29" si="40">SUM(V26:Y26)</f>
+        <f t="shared" ref="AG26" si="55">SUM(V26:Y26)</f>
         <v>-770.09999999999991</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" ref="AH26:AH29" si="41">SUM(W26:Z26)</f>
-        <v>-853.7</v>
+        <f t="shared" ref="AH26" si="56">SUM(W26:Z26)</f>
+        <v>-731.40000000000009</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" ref="AI26:AI29" si="42">SUM(X26:AA26)</f>
-        <v>-854.5</v>
+        <f t="shared" ref="AI26" si="57">SUM(X26:AA26)</f>
+        <v>-732.2</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" ref="AJ26:AJ29" si="43">SUM(Y26:AB26)</f>
-        <v>-996.39999999999986</v>
+        <f t="shared" ref="AJ26" si="58">SUM(Y26:AB26)</f>
+        <v>-874.09999999999991</v>
       </c>
     </row>
     <row r="27" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3342,120 +3356,120 @@
         <v>49</v>
       </c>
       <c r="G27" s="8">
-        <f>G22-G26</f>
+        <f t="shared" ref="G27:N27" si="59">G22-G26</f>
         <v>74.800000000000324</v>
       </c>
       <c r="H27" s="8">
-        <f>H22-H26</f>
+        <f t="shared" si="59"/>
         <v>-113.70000000000027</v>
       </c>
       <c r="I27" s="8">
-        <f>I22-I26</f>
+        <f t="shared" si="59"/>
         <v>-12.499999999999773</v>
       </c>
       <c r="J27" s="8">
-        <f>J22-J26</f>
+        <f t="shared" si="59"/>
         <v>22.299999999999102</v>
       </c>
       <c r="K27" s="8">
-        <f>K22-K26</f>
+        <f t="shared" si="59"/>
         <v>506.10000000000059</v>
       </c>
       <c r="L27" s="8">
-        <f>L22-L26</f>
+        <f t="shared" si="59"/>
         <v>248.90000000000046</v>
       </c>
       <c r="M27" s="8">
-        <f>M22-M26</f>
+        <f t="shared" si="59"/>
         <v>323.80000000000121</v>
       </c>
       <c r="N27" s="8">
-        <f>N22-N26</f>
+        <f t="shared" si="59"/>
         <v>278.39999999999986</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" ref="O27:R27" si="44">O22-O26</f>
-        <v>196.99974999999949</v>
+        <f t="shared" ref="O27:R27" si="60">O22-O26</f>
+        <v>226.99999999999972</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="44"/>
-        <v>245.34987999999953</v>
+        <f t="shared" si="60"/>
+        <v>196.36699999999973</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="44"/>
-        <v>169.1267600000001</v>
+        <f t="shared" si="60"/>
+        <v>124.81472000000031</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="44"/>
-        <v>-115.1869300000003</v>
+        <f t="shared" si="60"/>
+        <v>-147.18640000000005</v>
       </c>
       <c r="T27" s="8">
-        <f>T22-T26</f>
+        <f t="shared" ref="T27:AA27" si="61">T22-T26</f>
         <v>378.4000000000006</v>
       </c>
       <c r="U27" s="8">
-        <f>U22-U26</f>
+        <f t="shared" si="61"/>
         <v>216.09999999999835</v>
       </c>
       <c r="V27" s="8">
-        <f>V22-V26</f>
+        <f t="shared" si="61"/>
         <v>157.39999999999819</v>
       </c>
       <c r="W27" s="8">
-        <f>W22-W26</f>
+        <f t="shared" si="61"/>
         <v>-565.30000000000268</v>
       </c>
       <c r="X27" s="8">
-        <f>X22-X26</f>
+        <f t="shared" si="61"/>
         <v>-29.100000000001984</v>
       </c>
       <c r="Y27" s="8">
-        <f>Y22-Y26</f>
+        <f t="shared" si="61"/>
         <v>1357.2000000000014</v>
       </c>
       <c r="Z27" s="8">
-        <f>Z22-Z26</f>
-        <v>496.28945999999996</v>
+        <f t="shared" si="61"/>
+        <v>400.99532000000107</v>
       </c>
       <c r="AA27" s="8">
-        <f>AA22-AA26</f>
-        <v>926.44753200000014</v>
+        <f t="shared" si="61"/>
+        <v>1376.7498382000012</v>
       </c>
       <c r="AB27" s="8">
-        <f t="shared" ref="AB27:AJ27" si="45">AB22-AB26</f>
-        <v>1629.6069234300007</v>
+        <f t="shared" ref="AB27:AJ27" si="62">AB22-AB26</f>
+        <v>2176.7616774400026</v>
       </c>
       <c r="AC27" s="8">
-        <f t="shared" si="45"/>
-        <v>2188.2614013430016</v>
+        <f t="shared" si="62"/>
+        <v>2545.2309511547232</v>
       </c>
       <c r="AD27" s="8">
-        <f t="shared" si="45"/>
-        <v>2236.1661239753312</v>
+        <f t="shared" si="62"/>
+        <v>2652.2605216047568</v>
       </c>
       <c r="AE27" s="8">
-        <f t="shared" si="45"/>
-        <v>2363.6897407845663</v>
+        <f t="shared" si="62"/>
+        <v>2787.1079387534301</v>
       </c>
       <c r="AF27" s="8">
-        <f t="shared" si="45"/>
-        <v>2293.5790808408415</v>
+        <f t="shared" si="62"/>
+        <v>2763.0944653060083</v>
       </c>
       <c r="AG27" s="8">
-        <f t="shared" si="45"/>
-        <v>2555.4587206055144</v>
+        <f t="shared" si="62"/>
+        <v>3073.2377923371728</v>
       </c>
       <c r="AH27" s="8">
-        <f t="shared" si="45"/>
-        <v>2670.9730845417171</v>
+        <f t="shared" si="62"/>
+        <v>3116.9550739806114</v>
       </c>
       <c r="AI27" s="8">
-        <f t="shared" si="45"/>
-        <v>2703.6625987722928</v>
+        <f t="shared" si="62"/>
+        <v>3202.4627204620874</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="45"/>
-        <v>2877.3634219657979</v>
+        <f t="shared" si="62"/>
+        <v>3431.3761842233557</v>
       </c>
     </row>
     <row r="28" spans="2:139" x14ac:dyDescent="0.3">
@@ -3472,7 +3486,7 @@
         <v>81.099999999999994</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28:J29" si="46">X28-I28-H28-G28</f>
+        <f t="shared" ref="J28:J29" si="63">X28-I28-H28-G28</f>
         <v>-59.79999999999999</v>
       </c>
       <c r="K28" s="3">
@@ -3485,24 +3499,23 @@
         <v>43</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" ref="N28:N29" si="47">Y28-M28-L28-K28</f>
+        <f t="shared" ref="N28:N29" si="64">Y28-M28-L28-K28</f>
         <v>-1646.8</v>
       </c>
       <c r="O28" s="3">
-        <f>O27*0.05</f>
-        <v>9.8499874999999761</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:R28" si="48">P27*0.05</f>
-        <v>12.267493999999978</v>
+        <f t="shared" ref="P28:R28" si="65">P27*0.05</f>
+        <v>9.8183499999999881</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="48"/>
-        <v>8.4563380000000059</v>
+        <f t="shared" si="65"/>
+        <v>6.240736000000016</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="48"/>
-        <v>-5.7593465000000155</v>
+        <f t="shared" si="65"/>
+        <v>-7.359320000000003</v>
       </c>
       <c r="T28" s="3">
         <v>2.8</v>
@@ -3523,48 +3536,48 @@
         <v>-1509.3</v>
       </c>
       <c r="Z28" s="3">
-        <f t="shared" ref="Z28:Z29" si="49">SUM(O28:R28)</f>
-        <v>24.814472999999943</v>
+        <f t="shared" ref="Z28:Z29" si="66">SUM(O28:R28)</f>
+        <v>46.999766000000001</v>
       </c>
       <c r="AA28" s="3">
         <f>AA27*0.1</f>
-        <v>92.644753200000025</v>
+        <v>137.67498382000014</v>
       </c>
       <c r="AB28" s="3">
-        <f t="shared" ref="AB28:AJ28" si="50">AB27*0.1</f>
-        <v>162.96069234300009</v>
+        <f t="shared" ref="AB28:AJ28" si="67">AB27*0.1</f>
+        <v>217.67616774400028</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="50"/>
-        <v>218.82614013430018</v>
+        <f t="shared" si="67"/>
+        <v>254.52309511547233</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="50"/>
-        <v>223.61661239753312</v>
+        <f t="shared" si="67"/>
+        <v>265.22605216047572</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="50"/>
-        <v>236.36897407845663</v>
+        <f t="shared" si="67"/>
+        <v>278.71079387534303</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="50"/>
-        <v>229.35790808408416</v>
+        <f t="shared" si="67"/>
+        <v>276.30944653060084</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="50"/>
-        <v>255.54587206055146</v>
+        <f t="shared" si="67"/>
+        <v>307.32377923371729</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="50"/>
-        <v>267.0973084541717</v>
+        <f t="shared" si="67"/>
+        <v>311.69550739806118</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="50"/>
-        <v>270.36625987722931</v>
+        <f t="shared" si="67"/>
+        <v>320.24627204620879</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="50"/>
-        <v>287.73634219657981</v>
+        <f t="shared" si="67"/>
+        <v>343.13761842233561</v>
       </c>
     </row>
     <row r="29" spans="2:139" x14ac:dyDescent="0.3">
@@ -3581,7 +3594,7 @@
         <v>-4.8</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="63"/>
         <v>-20.299999999999997</v>
       </c>
       <c r="K29" s="3">
@@ -3594,24 +3607,23 @@
         <v>-2.6</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>-21.400000000000002</v>
       </c>
       <c r="O29" s="3">
-        <f>O27*0.02</f>
-        <v>3.9399949999999899</v>
+        <v>-1.2</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" ref="P29:R29" si="51">P27*0.02</f>
-        <v>4.9069975999999906</v>
+        <f t="shared" ref="P29:Q29" si="68">P27*0.02</f>
+        <v>3.9273399999999947</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="51"/>
-        <v>3.3825352000000022</v>
+        <f t="shared" si="68"/>
+        <v>2.4962944000000062</v>
       </c>
       <c r="R29" s="3">
         <f>R27*0.2</f>
-        <v>-23.037386000000062</v>
+        <v>-29.437280000000012</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -3632,48 +3644,48 @@
         <v>-30.6</v>
       </c>
       <c r="Z29" s="3">
-        <f t="shared" si="49"/>
-        <v>-10.80785820000008</v>
+        <f t="shared" si="66"/>
+        <v>-24.21364560000001</v>
       </c>
       <c r="AA29" s="3">
         <f>AA27*0.02</f>
-        <v>18.528950640000001</v>
+        <v>27.534996764000027</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" ref="AB29:AJ29" si="52">AB27*0.02</f>
-        <v>32.592138468600012</v>
+        <f t="shared" ref="AB29:AJ29" si="69">AB27*0.02</f>
+        <v>43.535233548800051</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="52"/>
-        <v>43.765228026860029</v>
+        <f t="shared" si="69"/>
+        <v>50.904619023094469</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="52"/>
-        <v>44.723322479506628</v>
+        <f t="shared" si="69"/>
+        <v>53.045210432095139</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="52"/>
-        <v>47.273794815691325</v>
+        <f t="shared" si="69"/>
+        <v>55.742158775068603</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="52"/>
-        <v>45.871581616816833</v>
+        <f t="shared" si="69"/>
+        <v>55.261889306120167</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" si="52"/>
-        <v>51.109174412110292</v>
+        <f t="shared" si="69"/>
+        <v>61.464755846743458</v>
       </c>
       <c r="AH29" s="3">
-        <f t="shared" si="52"/>
-        <v>53.419461690834339</v>
+        <f t="shared" si="69"/>
+        <v>62.339101479612232</v>
       </c>
       <c r="AI29" s="3">
-        <f t="shared" si="52"/>
-        <v>54.073251975445856</v>
+        <f t="shared" si="69"/>
+        <v>64.049254409241755</v>
       </c>
       <c r="AJ29" s="3">
-        <f t="shared" si="52"/>
-        <v>57.547268439315957</v>
+        <f t="shared" si="69"/>
+        <v>68.627523684467121</v>
       </c>
     </row>
     <row r="30" spans="2:139" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3681,532 +3693,532 @@
         <v>52</v>
       </c>
       <c r="G30" s="8">
-        <f>G27-G28-G29</f>
+        <f t="shared" ref="G30:N30" si="70">G27-G28-G29</f>
         <v>98.400000000000318</v>
       </c>
       <c r="H30" s="8">
-        <f>H27-H28-H29</f>
+        <f t="shared" si="70"/>
         <v>-102.20000000000027</v>
       </c>
       <c r="I30" s="8">
-        <f>I27-I28-I29</f>
+        <f t="shared" si="70"/>
         <v>-88.79999999999977</v>
       </c>
       <c r="J30" s="8">
-        <f>J27-J28-J29</f>
+        <f t="shared" si="70"/>
         <v>102.39999999999908</v>
       </c>
       <c r="K30" s="8">
-        <f>K27-K28-K29</f>
+        <f t="shared" si="70"/>
         <v>471.80000000000058</v>
       </c>
       <c r="L30" s="8">
-        <f>L27-L28-L29</f>
+        <f t="shared" si="70"/>
         <v>195.30000000000047</v>
       </c>
       <c r="M30" s="8">
-        <f>M27-M28-M29</f>
+        <f t="shared" si="70"/>
         <v>283.40000000000123</v>
       </c>
       <c r="N30" s="8">
-        <f>N27-N28-N29</f>
+        <f t="shared" si="70"/>
         <v>1946.6</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" ref="O30:R30" si="53">O27-O28-O29</f>
-        <v>183.20976749999954</v>
+        <f t="shared" ref="O30:R30" si="71">O27-O28-O29</f>
+        <v>189.89999999999969</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="53"/>
-        <v>228.17538839999958</v>
+        <f t="shared" si="71"/>
+        <v>182.62130999999977</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="53"/>
-        <v>157.28788680000008</v>
+        <f t="shared" si="71"/>
+        <v>116.07768960000028</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="53"/>
-        <v>-86.390197500000227</v>
+        <f t="shared" si="71"/>
+        <v>-110.38980000000004</v>
       </c>
       <c r="T30" s="8">
-        <f>T27-T28-T29</f>
+        <f t="shared" ref="T30:AA30" si="72">T27-T28-T29</f>
         <v>375.60000000000059</v>
       </c>
       <c r="U30" s="8">
-        <f>U27-U28-U29</f>
+        <f t="shared" si="72"/>
         <v>213.19999999999834</v>
       </c>
       <c r="V30" s="8">
-        <f>V27-V28-V29</f>
+        <f t="shared" si="72"/>
         <v>166.29999999999819</v>
       </c>
       <c r="W30" s="8">
-        <f>W27-W28-W29</f>
+        <f t="shared" si="72"/>
         <v>-540.70000000000277</v>
       </c>
       <c r="X30" s="8">
-        <f>X27-X28-X29</f>
+        <f t="shared" si="72"/>
         <v>9.7999999999980147</v>
       </c>
       <c r="Y30" s="8">
-        <f>Y27-Y28-Y29</f>
+        <f t="shared" si="72"/>
         <v>2897.1000000000013</v>
       </c>
       <c r="Z30" s="8">
-        <f>Z27-Z28-Z29</f>
-        <v>482.28284520000005</v>
+        <f t="shared" si="72"/>
+        <v>378.20919960000106</v>
       </c>
       <c r="AA30" s="8">
-        <f>AA27-AA28-AA29</f>
-        <v>815.27382816000022</v>
+        <f t="shared" si="72"/>
+        <v>1211.5398576160012</v>
       </c>
       <c r="AB30" s="8">
-        <f t="shared" ref="AB30:AJ30" si="54">AB27-AB28-AB29</f>
-        <v>1434.0540926184005</v>
+        <f t="shared" ref="AB30:AJ30" si="73">AB27-AB28-AB29</f>
+        <v>1915.5502761472021</v>
       </c>
       <c r="AC30" s="8">
-        <f t="shared" si="54"/>
-        <v>1925.6700331818413</v>
+        <f t="shared" si="73"/>
+        <v>2239.8032370161568</v>
       </c>
       <c r="AD30" s="8">
-        <f t="shared" si="54"/>
-        <v>1967.8261890982915</v>
+        <f t="shared" si="73"/>
+        <v>2333.9892590121858</v>
       </c>
       <c r="AE30" s="8">
-        <f t="shared" si="54"/>
-        <v>2080.0469718904183</v>
+        <f t="shared" si="73"/>
+        <v>2452.6549861030185</v>
       </c>
       <c r="AF30" s="8">
-        <f t="shared" si="54"/>
-        <v>2018.3495911399405</v>
+        <f t="shared" si="73"/>
+        <v>2431.5231294692871</v>
       </c>
       <c r="AG30" s="8">
-        <f t="shared" si="54"/>
-        <v>2248.8036741328524</v>
+        <f t="shared" si="73"/>
+        <v>2704.4492572567119</v>
       </c>
       <c r="AH30" s="8">
-        <f t="shared" si="54"/>
-        <v>2350.4563143967112</v>
+        <f t="shared" si="73"/>
+        <v>2742.9204651029381</v>
       </c>
       <c r="AI30" s="8">
-        <f t="shared" si="54"/>
-        <v>2379.2230869196173</v>
+        <f t="shared" si="73"/>
+        <v>2818.1671940066367</v>
       </c>
       <c r="AJ30" s="8">
-        <f t="shared" si="54"/>
-        <v>2532.0798113299024</v>
+        <f t="shared" si="73"/>
+        <v>3019.6110421165531</v>
       </c>
       <c r="AK30" s="1">
         <f>AJ30*(1+$AN$35)</f>
-        <v>2506.7590132166033</v>
+        <v>2989.4149316953876</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" ref="AL30:CW30" si="55">AK30*(1+$AN$35)</f>
-        <v>2481.6914230844372</v>
+        <f t="shared" ref="AL30:CW30" si="74">AK30*(1+$AN$35)</f>
+        <v>2959.5207823784335</v>
       </c>
       <c r="AM30" s="1">
-        <f t="shared" si="55"/>
-        <v>2456.8745088535929</v>
+        <f t="shared" si="74"/>
+        <v>2929.9255745546493</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" si="55"/>
-        <v>2432.3057637650568</v>
+        <f t="shared" si="74"/>
+        <v>2900.6263188091029</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" si="55"/>
-        <v>2407.9827061274063</v>
+        <f t="shared" si="74"/>
+        <v>2871.6200556210119</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" si="55"/>
-        <v>2383.9028790661323</v>
+        <f t="shared" si="74"/>
+        <v>2842.903855064802</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="55"/>
-        <v>2360.0638502754709</v>
+        <f t="shared" si="74"/>
+        <v>2814.4748165141541</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" si="55"/>
-        <v>2336.463211772716</v>
+        <f t="shared" si="74"/>
+        <v>2786.3300683490124</v>
       </c>
       <c r="AS30" s="1">
-        <f t="shared" si="55"/>
-        <v>2313.098579654989</v>
+        <f t="shared" si="74"/>
+        <v>2758.4667676655222</v>
       </c>
       <c r="AT30" s="1">
-        <f t="shared" si="55"/>
-        <v>2289.9675938584392</v>
+        <f t="shared" si="74"/>
+        <v>2730.8820999888671</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" si="55"/>
-        <v>2267.0679179198546</v>
+        <f t="shared" si="74"/>
+        <v>2703.5732789889785</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" si="55"/>
-        <v>2244.3972387406561</v>
+        <f t="shared" si="74"/>
+        <v>2676.5375461990889</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="55"/>
-        <v>2221.9532663532495</v>
+        <f t="shared" si="74"/>
+        <v>2649.7721707370979</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="55"/>
-        <v>2199.7337336897172</v>
+        <f t="shared" si="74"/>
+        <v>2623.2744490297268</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="55"/>
-        <v>2177.7363963528201</v>
+        <f t="shared" si="74"/>
+        <v>2597.0417045394297</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" si="55"/>
-        <v>2155.9590323892917</v>
+        <f t="shared" si="74"/>
+        <v>2571.0712874940355</v>
       </c>
       <c r="BA30" s="1">
-        <f t="shared" si="55"/>
-        <v>2134.3994420653989</v>
+        <f t="shared" si="74"/>
+        <v>2545.3605746190951</v>
       </c>
       <c r="BB30" s="1">
-        <f t="shared" si="55"/>
-        <v>2113.0554476447451</v>
+        <f t="shared" si="74"/>
+        <v>2519.9069688729041</v>
       </c>
       <c r="BC30" s="1">
-        <f t="shared" si="55"/>
-        <v>2091.9248931682978</v>
+        <f t="shared" si="74"/>
+        <v>2494.7078991841749</v>
       </c>
       <c r="BD30" s="1">
-        <f t="shared" si="55"/>
-        <v>2071.0056442366149</v>
+        <f t="shared" si="74"/>
+        <v>2469.7608201923331</v>
       </c>
       <c r="BE30" s="1">
-        <f t="shared" si="55"/>
-        <v>2050.2955877942486</v>
+        <f t="shared" si="74"/>
+        <v>2445.0632119904099</v>
       </c>
       <c r="BF30" s="1">
-        <f t="shared" si="55"/>
-        <v>2029.7926319163062</v>
+        <f t="shared" si="74"/>
+        <v>2420.6125798705057</v>
       </c>
       <c r="BG30" s="1">
-        <f t="shared" si="55"/>
-        <v>2009.4947055971431</v>
+        <f t="shared" si="74"/>
+        <v>2396.4064540718005</v>
       </c>
       <c r="BH30" s="1">
-        <f t="shared" si="55"/>
-        <v>1989.3997585411716</v>
+        <f t="shared" si="74"/>
+        <v>2372.4423895310824</v>
       </c>
       <c r="BI30" s="1">
-        <f t="shared" si="55"/>
-        <v>1969.50576095576</v>
+        <f t="shared" si="74"/>
+        <v>2348.7179656357716</v>
       </c>
       <c r="BJ30" s="1">
-        <f t="shared" si="55"/>
-        <v>1949.8107033462024</v>
+        <f t="shared" si="74"/>
+        <v>2325.2307859794141</v>
       </c>
       <c r="BK30" s="1">
-        <f t="shared" si="55"/>
-        <v>1930.3125963127404</v>
+        <f t="shared" si="74"/>
+        <v>2301.9784781196199</v>
       </c>
       <c r="BL30" s="1">
-        <f t="shared" si="55"/>
-        <v>1911.0094703496129</v>
+        <f t="shared" si="74"/>
+        <v>2278.9586933384239</v>
       </c>
       <c r="BM30" s="1">
-        <f t="shared" si="55"/>
-        <v>1891.8993756461168</v>
+        <f t="shared" si="74"/>
+        <v>2256.1691064050397</v>
       </c>
       <c r="BN30" s="1">
-        <f t="shared" si="55"/>
-        <v>1872.9803818896557</v>
+        <f t="shared" si="74"/>
+        <v>2233.6074153409891</v>
       </c>
       <c r="BO30" s="1">
-        <f t="shared" si="55"/>
-        <v>1854.2505780707593</v>
+        <f t="shared" si="74"/>
+        <v>2211.2713411875793</v>
       </c>
       <c r="BP30" s="1">
-        <f t="shared" si="55"/>
-        <v>1835.7080722900516</v>
+        <f t="shared" si="74"/>
+        <v>2189.1586277757033</v>
       </c>
       <c r="BQ30" s="1">
-        <f t="shared" si="55"/>
-        <v>1817.3509915671511</v>
+        <f t="shared" si="74"/>
+        <v>2167.2670414979461</v>
       </c>
       <c r="BR30" s="1">
-        <f t="shared" si="55"/>
-        <v>1799.1774816514796</v>
+        <f t="shared" si="74"/>
+        <v>2145.5943710829665</v>
       </c>
       <c r="BS30" s="1">
-        <f t="shared" si="55"/>
-        <v>1781.1857068349648</v>
+        <f t="shared" si="74"/>
+        <v>2124.1384273721369</v>
       </c>
       <c r="BT30" s="1">
-        <f t="shared" si="55"/>
-        <v>1763.3738497666152</v>
+        <f t="shared" si="74"/>
+        <v>2102.8970430984155</v>
       </c>
       <c r="BU30" s="1">
-        <f t="shared" si="55"/>
-        <v>1745.740111268949</v>
+        <f t="shared" si="74"/>
+        <v>2081.8680726674311</v>
       </c>
       <c r="BV30" s="1">
-        <f t="shared" si="55"/>
-        <v>1728.2827101562596</v>
+        <f t="shared" si="74"/>
+        <v>2061.0493919407568</v>
       </c>
       <c r="BW30" s="1">
-        <f t="shared" si="55"/>
-        <v>1710.999883054697</v>
+        <f t="shared" si="74"/>
+        <v>2040.4388980213491</v>
       </c>
       <c r="BX30" s="1">
-        <f t="shared" si="55"/>
-        <v>1693.8898842241499</v>
+        <f t="shared" si="74"/>
+        <v>2020.0345090411356</v>
       </c>
       <c r="BY30" s="1">
-        <f t="shared" si="55"/>
-        <v>1676.9509853819084</v>
+        <f t="shared" si="74"/>
+        <v>1999.8341639507241</v>
       </c>
       <c r="BZ30" s="1">
-        <f t="shared" si="55"/>
-        <v>1660.1814755280893</v>
+        <f t="shared" si="74"/>
+        <v>1979.8358223112168</v>
       </c>
       <c r="CA30" s="1">
-        <f t="shared" si="55"/>
-        <v>1643.5796607728084</v>
+        <f t="shared" si="74"/>
+        <v>1960.0374640881046</v>
       </c>
       <c r="CB30" s="1">
-        <f t="shared" si="55"/>
-        <v>1627.1438641650802</v>
+        <f t="shared" si="74"/>
+        <v>1940.4370894472236</v>
       </c>
       <c r="CC30" s="1">
-        <f t="shared" si="55"/>
-        <v>1610.8724255234295</v>
+        <f t="shared" si="74"/>
+        <v>1921.0327185527512</v>
       </c>
       <c r="CD30" s="1">
-        <f t="shared" si="55"/>
-        <v>1594.7637012681951</v>
+        <f t="shared" si="74"/>
+        <v>1901.8223913672236</v>
       </c>
       <c r="CE30" s="1">
-        <f t="shared" si="55"/>
-        <v>1578.8160642555131</v>
+        <f t="shared" si="74"/>
+        <v>1882.8041674535514</v>
       </c>
       <c r="CF30" s="1">
-        <f t="shared" si="55"/>
-        <v>1563.027903612958</v>
+        <f t="shared" si="74"/>
+        <v>1863.9761257790158</v>
       </c>
       <c r="CG30" s="1">
-        <f t="shared" si="55"/>
-        <v>1547.3976245768283</v>
+        <f t="shared" si="74"/>
+        <v>1845.3363645212255</v>
       </c>
       <c r="CH30" s="1">
-        <f t="shared" si="55"/>
-        <v>1531.9236483310601</v>
+        <f t="shared" si="74"/>
+        <v>1826.8830008760133</v>
       </c>
       <c r="CI30" s="1">
-        <f t="shared" si="55"/>
-        <v>1516.6044118477496</v>
+        <f t="shared" si="74"/>
+        <v>1808.6141708672531</v>
       </c>
       <c r="CJ30" s="1">
-        <f t="shared" si="55"/>
-        <v>1501.4383677292722</v>
+        <f t="shared" si="74"/>
+        <v>1790.5280291585805</v>
       </c>
       <c r="CK30" s="1">
-        <f t="shared" si="55"/>
-        <v>1486.4239840519795</v>
+        <f t="shared" si="74"/>
+        <v>1772.6227488669947</v>
       </c>
       <c r="CL30" s="1">
-        <f t="shared" si="55"/>
-        <v>1471.5597442114597</v>
+        <f t="shared" si="74"/>
+        <v>1754.8965213783247</v>
       </c>
       <c r="CM30" s="1">
-        <f t="shared" si="55"/>
-        <v>1456.8441467693451</v>
+        <f t="shared" si="74"/>
+        <v>1737.3475561645414</v>
       </c>
       <c r="CN30" s="1">
-        <f t="shared" si="55"/>
-        <v>1442.2757053016517</v>
+        <f t="shared" si="74"/>
+        <v>1719.974080602896</v>
       </c>
       <c r="CO30" s="1">
-        <f t="shared" si="55"/>
-        <v>1427.8529482486351</v>
+        <f t="shared" si="74"/>
+        <v>1702.774339796867</v>
       </c>
       <c r="CP30" s="1">
-        <f t="shared" si="55"/>
-        <v>1413.5744187661487</v>
+        <f t="shared" si="74"/>
+        <v>1685.7465963988984</v>
       </c>
       <c r="CQ30" s="1">
-        <f t="shared" si="55"/>
-        <v>1399.4386745784873</v>
+        <f t="shared" si="74"/>
+        <v>1668.8891304349095</v>
       </c>
       <c r="CR30" s="1">
-        <f t="shared" si="55"/>
-        <v>1385.4442878327025</v>
+        <f t="shared" si="74"/>
+        <v>1652.2002391305605</v>
       </c>
       <c r="CS30" s="1">
-        <f t="shared" si="55"/>
-        <v>1371.5898449543754</v>
+        <f t="shared" si="74"/>
+        <v>1635.6782367392548</v>
       </c>
       <c r="CT30" s="1">
-        <f t="shared" si="55"/>
-        <v>1357.8739465048316</v>
+        <f t="shared" si="74"/>
+        <v>1619.3214543718623</v>
       </c>
       <c r="CU30" s="1">
-        <f t="shared" si="55"/>
-        <v>1344.2952070397832</v>
+        <f t="shared" si="74"/>
+        <v>1603.1282398281437</v>
       </c>
       <c r="CV30" s="1">
-        <f t="shared" si="55"/>
-        <v>1330.8522549693853</v>
+        <f t="shared" si="74"/>
+        <v>1587.0969574298622</v>
       </c>
       <c r="CW30" s="1">
-        <f t="shared" si="55"/>
-        <v>1317.5437324196914</v>
+        <f t="shared" si="74"/>
+        <v>1571.2259878555635</v>
       </c>
       <c r="CX30" s="1">
-        <f t="shared" ref="CX30:EI30" si="56">CW30*(1+$AN$35)</f>
-        <v>1304.3682950954944</v>
+        <f t="shared" ref="CX30:EI30" si="75">CW30*(1+$AN$35)</f>
+        <v>1555.5137279770079</v>
       </c>
       <c r="CY30" s="1">
-        <f t="shared" si="56"/>
-        <v>1291.3246121445395</v>
+        <f t="shared" si="75"/>
+        <v>1539.9585906972377</v>
       </c>
       <c r="CZ30" s="1">
-        <f t="shared" si="56"/>
-        <v>1278.4113660230942</v>
+        <f t="shared" si="75"/>
+        <v>1524.5590047902654</v>
       </c>
       <c r="DA30" s="1">
-        <f t="shared" si="56"/>
-        <v>1265.6272523628631</v>
+        <f t="shared" si="75"/>
+        <v>1509.3134147423627</v>
       </c>
       <c r="DB30" s="1">
-        <f t="shared" si="56"/>
-        <v>1252.9709798392346</v>
+        <f t="shared" si="75"/>
+        <v>1494.2202805949391</v>
       </c>
       <c r="DC30" s="1">
-        <f t="shared" si="56"/>
-        <v>1240.4412700408423</v>
+        <f t="shared" si="75"/>
+        <v>1479.2780777889898</v>
       </c>
       <c r="DD30" s="1">
-        <f t="shared" si="56"/>
-        <v>1228.0368573404339</v>
+        <f t="shared" si="75"/>
+        <v>1464.4852970110999</v>
       </c>
       <c r="DE30" s="1">
-        <f t="shared" si="56"/>
-        <v>1215.7564887670296</v>
+        <f t="shared" si="75"/>
+        <v>1449.8404440409888</v>
       </c>
       <c r="DF30" s="1">
-        <f t="shared" si="56"/>
-        <v>1203.5989238793593</v>
+        <f t="shared" si="75"/>
+        <v>1435.3420396005788</v>
       </c>
       <c r="DG30" s="1">
-        <f t="shared" si="56"/>
-        <v>1191.5629346405658</v>
+        <f t="shared" si="75"/>
+        <v>1420.9886192045731</v>
       </c>
       <c r="DH30" s="1">
-        <f t="shared" si="56"/>
-        <v>1179.6473052941601</v>
+        <f t="shared" si="75"/>
+        <v>1406.7787330125273</v>
       </c>
       <c r="DI30" s="1">
-        <f t="shared" si="56"/>
-        <v>1167.8508322412185</v>
+        <f t="shared" si="75"/>
+        <v>1392.7109456824019</v>
       </c>
       <c r="DJ30" s="1">
-        <f t="shared" si="56"/>
-        <v>1156.1723239188063</v>
+        <f t="shared" si="75"/>
+        <v>1378.7838362255779</v>
       </c>
       <c r="DK30" s="1">
-        <f t="shared" si="56"/>
-        <v>1144.6106006796183</v>
+        <f t="shared" si="75"/>
+        <v>1364.9959978633221</v>
       </c>
       <c r="DL30" s="1">
-        <f t="shared" si="56"/>
-        <v>1133.164494672822</v>
+        <f t="shared" si="75"/>
+        <v>1351.3460378846889</v>
       </c>
       <c r="DM30" s="1">
-        <f t="shared" si="56"/>
-        <v>1121.8328497260939</v>
+        <f t="shared" si="75"/>
+        <v>1337.832577505842</v>
       </c>
       <c r="DN30" s="1">
-        <f t="shared" si="56"/>
-        <v>1110.6145212288329</v>
+        <f t="shared" si="75"/>
+        <v>1324.4542517307837</v>
       </c>
       <c r="DO30" s="1">
-        <f t="shared" si="56"/>
-        <v>1099.5083760165446</v>
+        <f t="shared" si="75"/>
+        <v>1311.2097092134759</v>
       </c>
       <c r="DP30" s="1">
-        <f t="shared" si="56"/>
-        <v>1088.5132922563791</v>
+        <f t="shared" si="75"/>
+        <v>1298.0976121213412</v>
       </c>
       <c r="DQ30" s="1">
-        <f t="shared" si="56"/>
-        <v>1077.6281593338153</v>
+        <f t="shared" si="75"/>
+        <v>1285.1166360001278</v>
       </c>
       <c r="DR30" s="1">
-        <f t="shared" si="56"/>
-        <v>1066.8518777404772</v>
+        <f t="shared" si="75"/>
+        <v>1272.2654696401264</v>
       </c>
       <c r="DS30" s="1">
-        <f t="shared" si="56"/>
-        <v>1056.1833589630724</v>
+        <f t="shared" si="75"/>
+        <v>1259.542814943725</v>
       </c>
       <c r="DT30" s="1">
-        <f t="shared" si="56"/>
-        <v>1045.6215253734417</v>
+        <f t="shared" si="75"/>
+        <v>1246.9473867942877</v>
       </c>
       <c r="DU30" s="1">
-        <f t="shared" si="56"/>
-        <v>1035.1653101197073</v>
+        <f t="shared" si="75"/>
+        <v>1234.4779129263447</v>
       </c>
       <c r="DV30" s="1">
-        <f t="shared" si="56"/>
-        <v>1024.8136570185102</v>
+        <f t="shared" si="75"/>
+        <v>1222.1331337970812</v>
       </c>
       <c r="DW30" s="1">
-        <f t="shared" si="56"/>
-        <v>1014.5655204483251</v>
+        <f t="shared" si="75"/>
+        <v>1209.9118024591103</v>
       </c>
       <c r="DX30" s="1">
-        <f t="shared" si="56"/>
-        <v>1004.4198652438419</v>
+        <f t="shared" si="75"/>
+        <v>1197.8126844345193</v>
       </c>
       <c r="DY30" s="1">
-        <f t="shared" si="56"/>
-        <v>994.37566659140339</v>
+        <f t="shared" si="75"/>
+        <v>1185.834557590174</v>
       </c>
       <c r="DZ30" s="1">
-        <f t="shared" si="56"/>
-        <v>984.43190992548932</v>
+        <f t="shared" si="75"/>
+        <v>1173.9762120142723</v>
       </c>
       <c r="EA30" s="1">
-        <f t="shared" si="56"/>
-        <v>974.58759082623442</v>
+        <f t="shared" si="75"/>
+        <v>1162.2364498941295</v>
       </c>
       <c r="EB30" s="1">
-        <f t="shared" si="56"/>
-        <v>964.84171491797201</v>
+        <f t="shared" si="75"/>
+        <v>1150.6140853951881</v>
       </c>
       <c r="EC30" s="1">
-        <f t="shared" si="56"/>
-        <v>955.19329776879226</v>
+        <f t="shared" si="75"/>
+        <v>1139.1079445412363</v>
       </c>
       <c r="ED30" s="1">
-        <f t="shared" si="56"/>
-        <v>945.64136479110437</v>
+        <f t="shared" si="75"/>
+        <v>1127.716865095824</v>
       </c>
       <c r="EE30" s="1">
-        <f t="shared" si="56"/>
-        <v>936.1849511431933</v>
+        <f t="shared" si="75"/>
+        <v>1116.4396964448658</v>
       </c>
       <c r="EF30" s="1">
-        <f t="shared" si="56"/>
-        <v>926.82310163176135</v>
+        <f t="shared" si="75"/>
+        <v>1105.2752994804171</v>
       </c>
       <c r="EG30" s="1">
-        <f t="shared" si="56"/>
-        <v>917.55487061544375</v>
+        <f t="shared" si="75"/>
+        <v>1094.2225464856128</v>
       </c>
       <c r="EH30" s="1">
-        <f t="shared" si="56"/>
-        <v>908.37932190928927</v>
+        <f t="shared" si="75"/>
+        <v>1083.2803210207567</v>
       </c>
       <c r="EI30" s="1">
-        <f t="shared" si="56"/>
-        <v>899.29552869019642</v>
+        <f t="shared" si="75"/>
+        <v>1072.447517810549</v>
       </c>
     </row>
     <row r="31" spans="2:139" x14ac:dyDescent="0.3">
@@ -4214,52 +4226,52 @@
         <v>2</v>
       </c>
       <c r="G31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" ref="G31:N31" si="76">559.4+60</f>
         <v>619.4</v>
       </c>
       <c r="H31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="I31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="J31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="K31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="L31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="M31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="N31" s="3">
-        <f>559.4+60</f>
+        <f t="shared" si="76"/>
         <v>619.4</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" ref="O31:R31" si="57">559.4+60</f>
-        <v>619.4</v>
+        <f>555+60</f>
+        <v>615</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="57"/>
-        <v>619.4</v>
+        <f>555+60</f>
+        <v>615</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="57"/>
-        <v>619.4</v>
+        <f>555+60</f>
+        <v>615</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="57"/>
-        <v>619.4</v>
+        <f>555+60</f>
+        <v>615</v>
       </c>
       <c r="T31" s="3">
         <v>425</v>
@@ -4281,48 +4293,48 @@
         <v>619.4</v>
       </c>
       <c r="Z31" s="3">
-        <f>559.4+60</f>
-        <v>619.4</v>
+        <f t="shared" ref="Z31:AJ31" si="77">555+60</f>
+        <v>615</v>
       </c>
       <c r="AA31" s="3">
-        <f>559.4+60</f>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AB31" s="3">
-        <f t="shared" ref="AB31:AJ31" si="58">559.4+60</f>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AH31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AI31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
       <c r="AJ31" s="3">
-        <f t="shared" si="58"/>
-        <v>619.4</v>
+        <f t="shared" si="77"/>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="2:139" x14ac:dyDescent="0.3">
@@ -4330,120 +4342,120 @@
         <v>53</v>
       </c>
       <c r="G32" s="7">
-        <f>G30/G31</f>
+        <f t="shared" ref="G32:N32" si="78">G30/G31</f>
         <v>0.15886341620923528</v>
       </c>
       <c r="H32" s="7">
-        <f>H30/H31</f>
+        <f t="shared" si="78"/>
         <v>-0.16499838553438856</v>
       </c>
       <c r="I32" s="7">
-        <f>I30/I31</f>
+        <f t="shared" si="78"/>
         <v>-0.14336454633516268</v>
       </c>
       <c r="J32" s="7">
-        <f>J30/J31</f>
+        <f t="shared" si="78"/>
         <v>0.16532127865676313</v>
       </c>
       <c r="K32" s="7">
-        <f>K30/K31</f>
+        <f t="shared" si="78"/>
         <v>0.76170487568614886</v>
       </c>
       <c r="L32" s="7">
-        <f>L30/L31</f>
+        <f t="shared" si="78"/>
         <v>0.31530513400064653</v>
       </c>
       <c r="M32" s="7">
-        <f>M30/M31</f>
+        <f t="shared" si="78"/>
         <v>0.45753955440749311</v>
       </c>
       <c r="N32" s="7">
-        <f>N30/N31</f>
+        <f t="shared" si="78"/>
         <v>3.1427187600904101</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" ref="O32:R32" si="59">O30/O31</f>
-        <v>0.29578586938973128</v>
+        <f t="shared" ref="O32:R32" si="79">O30/O31</f>
+        <v>0.30878048780487755</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="59"/>
-        <v>0.36838131804972485</v>
+        <f t="shared" si="79"/>
+        <v>0.29694521951219477</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="59"/>
-        <v>0.25393588440426235</v>
+        <f t="shared" si="79"/>
+        <v>0.18874421073170777</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="59"/>
-        <v>-0.13947400306748503</v>
+        <f t="shared" si="79"/>
+        <v>-0.17949560975609763</v>
       </c>
       <c r="T32" s="7">
-        <f>T30/T31</f>
+        <f t="shared" ref="T32:AA32" si="80">T30/T31</f>
         <v>0.88376470588235434</v>
       </c>
       <c r="U32" s="7">
-        <f>U30/U31</f>
+        <f t="shared" si="80"/>
         <v>0.48115549537350111</v>
       </c>
       <c r="V32" s="7">
-        <f>V30/V31</f>
+        <f t="shared" si="80"/>
         <v>0.36278359511343411</v>
       </c>
       <c r="W32" s="7">
-        <f>W30/W31</f>
+        <f t="shared" si="80"/>
         <v>-0.93401278286405731</v>
       </c>
       <c r="X32" s="7">
-        <f>X30/X31</f>
+        <f t="shared" si="80"/>
         <v>1.6094596813923494E-2</v>
       </c>
       <c r="Y32" s="7">
-        <f>Y30/Y31</f>
+        <f t="shared" si="80"/>
         <v>4.6772683241846975</v>
       </c>
       <c r="Z32" s="7">
-        <f>Z30/Z31</f>
-        <v>0.77862906877623517</v>
+        <f t="shared" si="80"/>
+        <v>0.61497430829268462</v>
       </c>
       <c r="AA32" s="7">
-        <f>AA30/AA31</f>
-        <v>1.3162315598320959</v>
+        <f t="shared" si="80"/>
+        <v>1.9699835083187012</v>
       </c>
       <c r="AB32" s="7">
-        <f t="shared" ref="AB32:AJ32" si="60">AB30/AB31</f>
-        <v>2.3152310181117222</v>
+        <f t="shared" ref="AB32:AJ32" si="81">AB30/AB31</f>
+        <v>3.1147158961743124</v>
       </c>
       <c r="AC32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.108928048404652</v>
+        <f t="shared" si="81"/>
+        <v>3.6419564829531006</v>
       </c>
       <c r="AD32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.1769877124609165</v>
+        <f t="shared" si="81"/>
+        <v>3.7951044861986762</v>
       </c>
       <c r="AE32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.3581643072173368</v>
+        <f t="shared" si="81"/>
+        <v>3.9880568879723879</v>
       </c>
       <c r="AF32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.2585560076524711</v>
+        <f t="shared" si="81"/>
+        <v>3.9536961454785158</v>
       </c>
       <c r="AG32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.6306161997624353</v>
+        <f t="shared" si="81"/>
+        <v>4.3974784670840847</v>
       </c>
       <c r="AH32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.7947308918254943</v>
+        <f t="shared" si="81"/>
+        <v>4.4600332765901429</v>
       </c>
       <c r="AI32" s="7">
-        <f t="shared" si="60"/>
-        <v>3.841173856828572</v>
+        <f t="shared" si="81"/>
+        <v>4.582385681311604</v>
       </c>
       <c r="AJ32" s="7">
-        <f t="shared" si="60"/>
-        <v>4.0879557819339727</v>
+        <f t="shared" si="81"/>
+        <v>4.909936653848054</v>
       </c>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.3">
@@ -4455,15 +4467,15 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9">
-        <f t="shared" ref="G34:M37" si="61">K3/G3-1</f>
+        <f t="shared" ref="K34:M37" si="82">K3/G3-1</f>
         <v>6.220566528431859E-2</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>4.5979117054405494E-2</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>3.2374751311267991E-2</v>
       </c>
       <c r="N34" s="9">
@@ -4471,36 +4483,36 @@
         <v>5.0682871820572961E-2</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" ref="O34:R37" si="62">O3/K3-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="O34:R37" si="83">O3/K3-1</f>
+        <v>2.6138168343038615E-2</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" si="62"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="83"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="62"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="83"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="62"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="83"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9">
-        <f t="shared" ref="T34:Y34" si="63">U3/T3-1</f>
+        <f t="shared" ref="U34:X34" si="84">U3/T3-1</f>
         <v>6.9423257927363702E-2</v>
       </c>
       <c r="V34" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="84"/>
         <v>0.4546585735963582</v>
       </c>
       <c r="W34" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="84"/>
         <v>0.18952243850535133</v>
       </c>
       <c r="X34" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="84"/>
         <v>0.10765588003157056</v>
       </c>
       <c r="Y34" s="9">
@@ -4508,47 +4520,47 @@
         <v>4.7250328567130628E-2</v>
       </c>
       <c r="Z34" s="9">
-        <f t="shared" ref="Z34:AJ34" si="64">Z3/Y3-1</f>
-        <v>4.228495395920584E-2</v>
+        <f t="shared" ref="Z34:AJ34" si="85">Z3/Y3-1</f>
+        <v>1.8812465034700576E-2</v>
       </c>
       <c r="AA34" s="9">
-        <f t="shared" si="64"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB34" s="9">
-        <f t="shared" si="64"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AC34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ34" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -4561,100 +4573,100 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>0.23137168789342688</v>
       </c>
       <c r="L35" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>0.22333219295244611</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>0.20430035501373167</v>
       </c>
       <c r="N35" s="9">
-        <f t="shared" ref="N35:N37" si="65">N4/J4-1</f>
+        <f t="shared" ref="N35:N37" si="86">N4/J4-1</f>
         <v>0.16777490456840294</v>
       </c>
       <c r="O35" s="9">
-        <f t="shared" si="62"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="83"/>
+        <v>0.12405635142364613</v>
       </c>
       <c r="P35" s="9">
-        <f t="shared" si="62"/>
-        <v>0.1399999999999999</v>
+        <f t="shared" si="83"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="62"/>
-        <v>0.1399999999999999</v>
+        <f t="shared" si="83"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="62"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="83"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="T35" s="9"/>
       <c r="U35" s="9">
-        <f t="shared" ref="T35:Y35" si="66">U4/T4-1</f>
+        <f t="shared" ref="U35:X35" si="87">U4/T4-1</f>
         <v>0.49238972370334477</v>
       </c>
       <c r="V35" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="87"/>
         <v>0.76023125893205123</v>
       </c>
       <c r="W35" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="87"/>
         <v>0.68018599845001315</v>
       </c>
       <c r="X35" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="87"/>
         <v>0.30574591460200318</v>
       </c>
       <c r="Y35" s="9">
-        <f t="shared" ref="W35:Y50" si="67">Y4/X4-1</f>
+        <f t="shared" ref="Y35:Y38" si="88">Y4/X4-1</f>
         <v>0.20522136993675133</v>
       </c>
       <c r="Z35" s="9">
-        <f t="shared" ref="Z35:AJ35" si="68">Z4/Y4-1</f>
-        <v>0.13705351161232682</v>
+        <f t="shared" ref="Z35:AJ35" si="89">Z4/Y4-1</f>
+        <v>0.10035395265743641</v>
       </c>
       <c r="AA35" s="9">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="89"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AB35" s="9">
-        <f t="shared" si="68"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="89"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="AC35" s="9">
-        <f t="shared" si="68"/>
-        <v>6.0000000000000053E-2</v>
+        <f t="shared" si="89"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="AD35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE35" s="9">
-        <f t="shared" si="68"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="89"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="AF35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AG35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AH35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AI35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ35" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="89"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM35" t="s">
@@ -4673,101 +4685,101 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>-0.1333333333333333</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>-4.231625835189301E-2</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>-0.1300236406619385</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="86"/>
         <v>-4.3076923076922791E-2</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="62"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="83"/>
+        <v>-0.11692307692307691</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="62"/>
-        <v>-4.9999999999999933E-2</v>
+        <f t="shared" si="83"/>
+        <v>-7.999999999999996E-2</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="62"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="83"/>
+        <v>-7.9999999999999849E-2</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="62"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="83"/>
+        <v>-7.999999999999996E-2</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9">
-        <f t="shared" ref="T36:Y36" si="69">U5/T5-1</f>
+        <f t="shared" ref="U36:X36" si="90">U5/T5-1</f>
         <v>8.5207100591716101E-2</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="90"/>
         <v>0.5888767720828787</v>
       </c>
       <c r="W36" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="90"/>
         <v>0.12834591626630076</v>
       </c>
       <c r="X36" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="90"/>
         <v>-4.3795620437956262E-2</v>
       </c>
       <c r="Y36" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="88"/>
         <v>-8.7786259541984601E-2</v>
       </c>
       <c r="Z36" s="9">
-        <f t="shared" ref="Z36:AJ36" si="70">Z5/Y5-1</f>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" ref="Z36:AJ36" si="91">Z5/Y5-1</f>
+        <v>-8.8368200836820066E-2</v>
       </c>
       <c r="AA36" s="9">
-        <f t="shared" si="70"/>
-        <v>-4.9999999999999933E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AC36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AD36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AE36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AF36" s="9">
-        <f t="shared" si="70"/>
-        <v>-4.9999999999999933E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AG36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AH36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AI36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" si="91"/>
+        <v>-7.0000000000000062E-2</v>
       </c>
       <c r="AJ36" s="9">
-        <f t="shared" si="70"/>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" si="91"/>
+        <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AM36" t="s">
         <v>71</v>
@@ -4785,100 +4797,100 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>0.26217765042979924</v>
       </c>
       <c r="L37" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>9.235016102722815E-2</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="82"/>
         <v>2.0630467073774472E-3</v>
       </c>
       <c r="N37" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="86"/>
         <v>-3.6587301587300947E-2</v>
       </c>
       <c r="O37" s="9">
-        <f t="shared" si="62"/>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" si="83"/>
+        <v>-0.15733587199296983</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="83"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="83"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="83"/>
         <v>-0.25</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9">
-        <f t="shared" ref="T37:Y37" si="71">U6/T6-1</f>
+        <f t="shared" ref="U37:X37" si="92">U6/T6-1</f>
         <v>7.8509196515004849</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="92"/>
         <v>1.1902220277808162</v>
       </c>
       <c r="W37" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="92"/>
         <v>-0.28960509757705299</v>
       </c>
       <c r="X37" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="92"/>
         <v>0.33536251036848541</v>
       </c>
       <c r="Y37" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="88"/>
         <v>7.3792152279881895E-2</v>
       </c>
       <c r="Z37" s="9">
-        <f t="shared" ref="Z37:AJ37" si="72">Z6/Y6-1</f>
-        <v>-0.15893207310377278</v>
+        <f t="shared" ref="Z37:AJ37" si="93">Z6/Y6-1</f>
+        <v>-0.18767403325751042</v>
       </c>
       <c r="AA37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AB37" s="9">
-        <f t="shared" si="72"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="93"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AC37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AD37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AE37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AF37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AG37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AH37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AI37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ37" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AM37" t="s">
@@ -4886,7 +4898,7 @@
       </c>
       <c r="AN37" s="3">
         <f>NPV(AN36,Z30:EI30)</f>
-        <v>24049.95604069651</v>
+        <v>28786.191397251314</v>
       </c>
     </row>
     <row r="38" spans="2:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4898,15 +4910,15 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10">
-        <f t="shared" ref="G38:M38" si="73">K7/G7-1</f>
+        <f t="shared" ref="K38:M38" si="94">K7/G7-1</f>
         <v>0.19375976914752902</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="94"/>
         <v>0.11212285456187909</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="94"/>
         <v>6.3765020026702368E-2</v>
       </c>
       <c r="N38" s="10">
@@ -4914,92 +4926,92 @@
         <v>4.5003377851686288E-2</v>
       </c>
       <c r="O38" s="10">
-        <f t="shared" ref="O38:R38" si="74">O7/K7-1</f>
-        <v>3.1848550469187886E-2</v>
+        <f t="shared" ref="O38:R38" si="95">O7/K7-1</f>
+        <v>-3.1105739369827745E-2</v>
       </c>
       <c r="P38" s="10">
-        <f t="shared" si="74"/>
-        <v>-1.2196861394502823E-2</v>
+        <f t="shared" si="95"/>
+        <v>-3.2372961206056261E-2</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="74"/>
-        <v>-2.8006426025402931E-2</v>
+        <f t="shared" si="95"/>
+        <v>-4.5957126361765188E-2</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" si="74"/>
-        <v>-5.201932799575637E-2</v>
+        <f t="shared" si="95"/>
+        <v>-7.0310143053690655E-2</v>
       </c>
       <c r="T38" s="10"/>
       <c r="U38" s="10">
-        <f t="shared" ref="T38:Y38" si="75">U7/T7-1</f>
+        <f t="shared" ref="U38:X38" si="96">U7/T7-1</f>
         <v>1.014935505770536</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="96"/>
         <v>0.85953293463611868</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="96"/>
         <v>-7.3324991082095448E-3</v>
       </c>
       <c r="X38" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="96"/>
         <v>0.25006274384539928</v>
       </c>
       <c r="Y38" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="88"/>
         <v>0.10063607658471585</v>
       </c>
       <c r="Z38" s="10">
-        <f t="shared" ref="Z38:AJ38" si="76">Z7/Y7-1</f>
-        <v>-1.5195368370430784E-2</v>
+        <f t="shared" ref="Z38:AJ38" si="97">Z7/Y7-1</f>
+        <v>-4.4913416054823241E-2</v>
       </c>
       <c r="AA38" s="10">
-        <f t="shared" si="76"/>
-        <v>7.8826403558287961E-2</v>
+        <f t="shared" si="97"/>
+        <v>6.8792524301104496E-2</v>
       </c>
       <c r="AB38" s="10">
-        <f t="shared" si="76"/>
-        <v>7.2854755230120416E-2</v>
+        <f t="shared" si="97"/>
+        <v>5.5595557609862789E-2</v>
       </c>
       <c r="AC38" s="10">
-        <f t="shared" si="76"/>
-        <v>4.5093269127757907E-2</v>
+        <f t="shared" si="97"/>
+        <v>4.1386473589254846E-2</v>
       </c>
       <c r="AD38" s="10">
-        <f t="shared" si="76"/>
-        <v>3.8012450696335076E-2</v>
+        <f t="shared" si="97"/>
+        <v>3.7790273333015323E-2</v>
       </c>
       <c r="AE38" s="10">
-        <f t="shared" si="76"/>
-        <v>3.4374587248211075E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.7055372121781662E-2</v>
       </c>
       <c r="AF38" s="10">
-        <f t="shared" si="76"/>
-        <v>2.7211121060790155E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.7106107091176224E-2</v>
       </c>
       <c r="AG38" s="10">
-        <f t="shared" si="76"/>
-        <v>2.7249326304231491E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.7153751283680805E-2</v>
       </c>
       <c r="AH38" s="10">
-        <f t="shared" si="76"/>
-        <v>2.7285964170535859E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.7198584261794112E-2</v>
       </c>
       <c r="AI38" s="10">
-        <f t="shared" si="76"/>
-        <v>2.732114360670379E-2</v>
+        <f t="shared" si="97"/>
+        <v>2.7240859854020805E-2</v>
       </c>
       <c r="AJ38" s="10">
-        <f t="shared" si="76"/>
-        <v>2.7354965627403471E-2</v>
-      </c>
-      <c r="AM38" s="11" t="s">
+        <f t="shared" si="97"/>
+        <v>2.7280808467722517E-2</v>
+      </c>
+      <c r="AM38" t="s">
         <v>73</v>
       </c>
-      <c r="AN38" s="12">
+      <c r="AN38" s="3">
         <f>Main!D8</f>
-        <v>2845.2000000000007</v>
+        <v>1980.4000000000005</v>
       </c>
     </row>
     <row r="39" spans="2:40" x14ac:dyDescent="0.3">
@@ -5007,71 +5019,71 @@
         <v>60</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" ref="G39:N39" si="77">(G3-G8)/G3</f>
+        <f t="shared" ref="G39:N39" si="98">(G3-G8)/G3</f>
         <v>0.42306881282069309</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.41961287171032546</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.40634231627177908</v>
       </c>
       <c r="J39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.40734243829094102</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.42218104817363683</v>
       </c>
       <c r="L39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.41617046117921774</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.40930857276337307</v>
       </c>
       <c r="N39" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="98"/>
         <v>0.40599844970484733</v>
       </c>
       <c r="O39" s="9">
-        <f t="shared" ref="O39:R39" si="78">(O3-O8)/O3</f>
+        <f t="shared" ref="O39:R39" si="99">(O3-O8)/O3</f>
+        <v>0.41716644096214617</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
-      <c r="P39" s="9">
-        <f t="shared" si="78"/>
+      <c r="Q39" s="9">
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="78"/>
+      <c r="R39" s="9">
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
-      <c r="R39" s="9">
-        <f t="shared" si="78"/>
-        <v>1</v>
-      </c>
       <c r="T39" s="9">
-        <f t="shared" ref="T39:Y39" si="79">(T3-T8)/T3</f>
+        <f t="shared" ref="T39:X39" si="100">(T3-T8)/T3</f>
         <v>0.37084158255168609</v>
       </c>
       <c r="U39" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>0.41833080424886193</v>
       </c>
       <c r="V39" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>0.43055642486073731</v>
       </c>
       <c r="W39" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>0.40997982986933262</v>
       </c>
       <c r="X39" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>0.4138045698541637</v>
       </c>
       <c r="Y39" s="9">
@@ -5080,51 +5092,51 @@
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9">
-        <f t="shared" ref="Z39:AJ39" si="80">(AA3-AA8)/AA3</f>
+        <f t="shared" ref="AA39:AJ39" si="101">(AA3-AA8)/AA3</f>
         <v>1</v>
       </c>
       <c r="AB39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AC39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AD39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AE39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AF39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AG39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AH39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AI39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="AJ39" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
-      <c r="AM39" s="11" t="s">
+      <c r="AM39" t="s">
         <v>74</v>
       </c>
       <c r="AN39" s="3">
         <f>AN37+AN38</f>
-        <v>26895.156040696511</v>
+        <v>30766.591397251315</v>
       </c>
     </row>
     <row r="40" spans="2:40" x14ac:dyDescent="0.3">
@@ -5132,124 +5144,124 @@
         <v>61</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" ref="G40:N40" si="81">(G4-G9)/G4</f>
+        <f t="shared" ref="G40:N40" si="102">(G4-G9)/G4</f>
         <v>0.80669008929878483</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.80896339377352033</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.82631120637685052</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.83222509543159717</v>
       </c>
       <c r="K40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.83968376627236518</v>
       </c>
       <c r="L40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.83679176687734214</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.84910172979587295</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="102"/>
         <v>0.84024885327147147</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" ref="O40:R40" si="82">(O4-O9)/O4</f>
+        <f t="shared" ref="O40:R40" si="103">(O4-O9)/O4</f>
+        <v>0.85457429931253304</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
-      <c r="P40" s="9">
-        <f t="shared" si="82"/>
+      <c r="Q40" s="9">
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="9">
-        <f t="shared" si="82"/>
+      <c r="R40" s="9">
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
-      <c r="R40" s="9">
-        <f t="shared" si="82"/>
-        <v>1</v>
-      </c>
       <c r="T40" s="9">
-        <f t="shared" ref="T40:Y40" si="83">(T4-T9)/T4</f>
+        <f t="shared" ref="T40:X40" si="104">(T4-T9)/T4</f>
         <v>0.76907416383906924</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="104"/>
         <v>0.85150058464336764</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="104"/>
         <v>0.81702771524522999</v>
       </c>
       <c r="W40" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="104"/>
         <v>0.81073185731857322</v>
       </c>
       <c r="X40" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="104"/>
         <v>0.81915287309917917</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" ref="W40:Y42" si="84">(Y4-Y9)/Y4</f>
+        <f t="shared" ref="Y40:Y42" si="105">(Y4-Y9)/Y4</f>
         <v>0.84147498883430105</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9">
-        <f t="shared" ref="Z40:AJ40" si="85">(AA4-AA9)/AA4</f>
+        <f t="shared" ref="AA40:AJ40" si="106">(AA4-AA9)/AA4</f>
         <v>1</v>
       </c>
       <c r="AB40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AC40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AD40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AE40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AF40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AG40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AH40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AI40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="AJ40" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="AM40" s="11" t="s">
+      <c r="AM40" t="s">
         <v>75</v>
       </c>
       <c r="AN40" s="2">
         <f>AN39/AJ31</f>
-        <v>43.421304553917523</v>
+        <v>50.026977881709456</v>
       </c>
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.3">
@@ -5257,124 +5269,124 @@
         <v>62</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" ref="G41:N41" si="86">(G5-G10)/G5</f>
+        <f t="shared" ref="G41:N41" si="107">(G5-G10)/G5</f>
         <v>-0.56799999999999995</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.65033407572383062</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.85106382978723405</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.73846153846153806</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.56307692307692303</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.58837209302325577</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.68750000000000022</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="107"/>
         <v>-0.77491961414791</v>
       </c>
       <c r="O41" s="9">
-        <f t="shared" ref="O41:R41" si="87">(O5-O10)/O5</f>
+        <f t="shared" ref="O41:R41" si="108">(O5-O10)/O5</f>
+        <v>-0.8292682926829269</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="P41" s="9">
-        <f t="shared" si="87"/>
+      <c r="Q41" s="9">
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="87"/>
+      <c r="R41" s="9">
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
-      <c r="R41" s="9">
-        <f t="shared" si="87"/>
-        <v>1</v>
-      </c>
       <c r="T41" s="9">
-        <f t="shared" ref="T41:Y41" si="88">(T5-T10)/T5</f>
+        <f t="shared" ref="T41:X41" si="109">(T5-T10)/T5</f>
         <v>-0.64142011834319512</v>
       </c>
       <c r="U41" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="109"/>
         <v>-0.57360959651035992</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="109"/>
         <v>-0.51818805765271114</v>
       </c>
       <c r="W41" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="109"/>
         <v>-0.74574209245742085</v>
       </c>
       <c r="X41" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="109"/>
         <v>-0.70292620865139954</v>
       </c>
       <c r="Y41" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="105"/>
         <v>-0.64853556485355646</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9">
-        <f t="shared" ref="Z41:AJ41" si="89">(AA5-AA10)/AA5</f>
+        <f t="shared" ref="AA41:AJ41" si="110">(AA5-AA10)/AA5</f>
         <v>1</v>
       </c>
       <c r="AB41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AC41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AD41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AE41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AF41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AG41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AH41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AI41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="AJ41" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
-      <c r="AM41" s="11" t="s">
+      <c r="AM41" t="s">
         <v>76</v>
       </c>
       <c r="AN41" s="2">
         <f>Main!D3</f>
-        <v>52.7</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.3">
@@ -5382,116 +5394,116 @@
         <v>63</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" ref="G42:N42" si="90">(G6-G11)/G6</f>
+        <f t="shared" ref="G42:N42" si="111">(G6-G11)/G6</f>
         <v>2.3292356040299514E-2</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>1.8486762307081128E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>1.8443637563954375E-2</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>2.6150793650792974E-2</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>2.9328841858591744E-2</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>2.5806945667572707E-2</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>2.6558511076340278E-2</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="111"/>
         <v>3.1633577724689645E-2</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" ref="O42:R42" si="91">(O6-O11)/O6</f>
+        <f t="shared" ref="O42:R42" si="112">(O6-O11)/O6</f>
+        <v>2.8374033197184401E-2</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
-      <c r="P42" s="9">
-        <f t="shared" si="91"/>
+      <c r="Q42" s="9">
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="9">
-        <f t="shared" si="91"/>
+      <c r="R42" s="9">
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
-      <c r="R42" s="9">
-        <f t="shared" si="91"/>
-        <v>1</v>
-      </c>
       <c r="T42" s="9">
-        <f t="shared" ref="T42:Y42" si="92">(T6-T11)/T6</f>
+        <f t="shared" ref="T42:X42" si="113">(T6-T11)/T6</f>
         <v>1.6069699903194602E-2</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="113"/>
         <v>2.1218418462211529E-2</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="113"/>
         <v>2.1732616902702631E-2</v>
       </c>
       <c r="W42" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="113"/>
         <v>2.1960100662177146E-2</v>
       </c>
       <c r="X42" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="113"/>
         <v>2.160386595496025E-2</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="105"/>
         <v>2.8315946348733339E-2</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9">
-        <f t="shared" ref="Z42:AJ42" si="93">(AA6-AA11)/AA6</f>
+        <f t="shared" ref="AA42:AJ42" si="114">(AA6-AA11)/AA6</f>
         <v>1</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AD42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AE42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AF42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AG42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AH42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AI42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AJ42" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="AM42" s="1" t="s">
@@ -5499,7 +5511,7 @@
       </c>
       <c r="AN42" s="10">
         <f>AN40/AN41-1</f>
-        <v>-0.17606632725014193</v>
+        <v>0.11667361343101468</v>
       </c>
     </row>
     <row r="43" spans="2:40" x14ac:dyDescent="0.3">
@@ -5507,71 +5519,71 @@
         <v>64</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" ref="G43:N43" si="94">G14/G7</f>
+        <f t="shared" ref="G43:N43" si="115">G14/G7</f>
         <v>0.34359344314857121</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.33714543812104786</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.33794392523364486</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.35091548441857628</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.3515804670057579</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.36284034050295672</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.37644125374433129</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="115"/>
         <v>0.38319492101380814</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" ref="O43:R43" si="95">O14/O7</f>
-        <v>0.35</v>
+        <f t="shared" ref="O43:R43" si="116">O14/O7</f>
+        <v>0.39670466752139716</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="116"/>
         <v>0.36</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="95"/>
-        <v>0.37</v>
+        <f t="shared" si="116"/>
+        <v>0.37000000000000005</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="95"/>
-        <v>0.37999999999999995</v>
+        <f t="shared" si="116"/>
+        <v>0.38000000000000006</v>
       </c>
       <c r="T43" s="9">
-        <f t="shared" ref="T43:Y43" si="96">T14/T7</f>
+        <f t="shared" ref="T43:X43" si="117">T14/T7</f>
         <v>0.40096741344195536</v>
       </c>
       <c r="U43" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="117"/>
         <v>0.28782008086253358</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="117"/>
         <v>0.25025055064520324</v>
       </c>
       <c r="W43" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="117"/>
         <v>0.34178283784708746</v>
       </c>
       <c r="X43" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="117"/>
         <v>0.34244556389056191</v>
       </c>
       <c r="Y43" s="9">
@@ -5579,50 +5591,50 @@
         <v>0.36851967779247219</v>
       </c>
       <c r="Z43" s="9">
-        <f t="shared" ref="Z43:AJ43" si="97">Z14/Z7</f>
-        <v>0.36467248303494937</v>
+        <f t="shared" ref="Z43:AJ43" si="118">Z14/Z7</f>
+        <v>0.37653953714815502</v>
       </c>
       <c r="AA43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.36</v>
+        <f t="shared" si="118"/>
+        <v>0.39</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.37000000000000005</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AC43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38000000000000006</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AD43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.37999999999999995</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AE43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38</v>
+        <f t="shared" si="118"/>
+        <v>0.40000000000000008</v>
       </c>
       <c r="AF43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AG43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AH43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AI43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38</v>
+        <f t="shared" si="118"/>
+        <v>0.4</v>
       </c>
       <c r="AJ43" s="9">
-        <f t="shared" si="97"/>
-        <v>0.38</v>
-      </c>
-      <c r="AM43" s="11" t="s">
+        <f t="shared" si="118"/>
+        <v>0.4</v>
+      </c>
+      <c r="AM43" t="s">
         <v>78</v>
       </c>
       <c r="AN43" s="6" t="s">
@@ -5638,15 +5650,15 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9">
-        <f t="shared" ref="G44:M44" si="98">K15/G15-1</f>
+        <f t="shared" ref="K44:M44" si="119">K15/G15-1</f>
         <v>0.14946562450151557</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="119"/>
         <v>2.6630200086368294E-2</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="119"/>
         <v>-3.9226674138413964E-3</v>
       </c>
       <c r="N44" s="9">
@@ -5654,36 +5666,36 @@
         <v>0.12284797198716046</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" ref="O44:R44" si="99">O15/K15-1</f>
+        <f t="shared" ref="O44:R44" si="120">O15/K15-1</f>
+        <v>5.5648071051901171E-2</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P44" s="9">
-        <f t="shared" si="99"/>
+      <c r="Q44" s="9">
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q44" s="9">
-        <f t="shared" si="99"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="R44" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T44" s="9"/>
       <c r="U44" s="9">
-        <f t="shared" ref="T44:Y44" si="100">U15/T15-1</f>
+        <f t="shared" ref="U44:X44" si="121">U15/T15-1</f>
         <v>0.31370513200830619</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.57965451055662176</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.5264098348938604</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="121"/>
         <v>0.27402135231316738</v>
       </c>
       <c r="Y44" s="9">
@@ -5691,48 +5703,48 @@
         <v>7.1155542487503665E-2</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" ref="Z44:AJ44" si="101">Z15/Y15-1</f>
+        <f t="shared" ref="Z44:AJ44" si="122">Z15/Y15-1</f>
+        <v>5.1396513862201454E-2</v>
+      </c>
+      <c r="AA44" s="9">
+        <f t="shared" si="122"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AA44" s="9">
-        <f t="shared" si="101"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="AB44" s="9">
-        <f t="shared" si="101"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="122"/>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="AC44" s="9">
-        <f t="shared" si="101"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="122"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="122"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AE44" s="9">
-        <f t="shared" si="101"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="122"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF44" s="9">
-        <f t="shared" si="101"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="122"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG44" s="9">
-        <f t="shared" si="101"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="122"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH44" s="9">
-        <f t="shared" si="101"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="122"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI44" s="9">
-        <f t="shared" si="101"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="122"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ44" s="9">
-        <f t="shared" si="101"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="122"/>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.3">
@@ -5740,71 +5752,71 @@
         <v>66</v>
       </c>
       <c r="G45" s="9">
-        <f t="shared" ref="G45:N45" si="102">G16/G7</f>
+        <f t="shared" ref="G45:N45" si="123">G16/G7</f>
         <v>9.9394813835116808E-2</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>9.7127371273712737E-2</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>8.5340453938584776E-2</v>
       </c>
       <c r="J45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>8.7650920681113464E-2</v>
       </c>
       <c r="K45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>7.4516123617196284E-2</v>
       </c>
       <c r="L45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>8.2461498472935213E-2</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>8.5646869822782259E-2</v>
       </c>
       <c r="N45" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="123"/>
         <v>8.6362656853481878E-2</v>
       </c>
       <c r="O45" s="9">
-        <f t="shared" ref="O45:R45" si="103">O16/O7</f>
+        <f t="shared" ref="O45:R45" si="124">O16/O7</f>
+        <v>8.7407741085969728E-2</v>
+      </c>
+      <c r="P45" s="9">
+        <f t="shared" si="124"/>
         <v>0.08</v>
       </c>
-      <c r="P45" s="9">
-        <f t="shared" si="103"/>
-        <v>0.08</v>
-      </c>
       <c r="Q45" s="9">
-        <f t="shared" si="103"/>
-        <v>9.0000000000000011E-2</v>
+        <f t="shared" si="124"/>
+        <v>0.09</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="103"/>
-        <v>9.0000000000000011E-2</v>
+        <f t="shared" si="124"/>
+        <v>0.09</v>
       </c>
       <c r="T45" s="9">
-        <f t="shared" ref="T45:Y45" si="104">T16/T7</f>
+        <f t="shared" ref="T45:X45" si="125">T16/T7</f>
         <v>0.13261625933469109</v>
       </c>
       <c r="U45" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>0.11684004380053911</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>9.1568475349780035E-2</v>
       </c>
       <c r="W45" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>0.11738803075589223</v>
       </c>
       <c r="X45" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="125"/>
         <v>9.2126156710288565E-2</v>
       </c>
       <c r="Y45" s="9">
@@ -5812,47 +5824,47 @@
         <v>8.2264075850603829E-2</v>
       </c>
       <c r="Z45" s="9">
-        <f t="shared" ref="Z45:AJ45" si="105">Z16/Z7</f>
-        <v>8.4852634467698862E-2</v>
+        <f t="shared" ref="Z45:AJ45" si="126">Z16/Z7</f>
+        <v>8.6765079680779428E-2</v>
       </c>
       <c r="AA45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AB45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AC45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AD45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AE45" s="9">
-        <f t="shared" si="105"/>
-        <v>8.0000000000000016E-2</v>
+        <f t="shared" si="126"/>
+        <v>0.08</v>
       </c>
       <c r="AF45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AG45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AH45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AI45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
       <c r="AJ45" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>0.08</v>
       </c>
     </row>
@@ -5865,55 +5877,55 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9">
-        <f t="shared" ref="G46:N46" si="106">K17/G17-1</f>
+        <f t="shared" ref="K46:N46" si="127">K17/G17-1</f>
         <v>8.8955637707948343E-2</v>
       </c>
       <c r="L46" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="127"/>
         <v>-0.13781176042235566</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="127"/>
         <v>-1.0397171969224406E-2</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="106"/>
+        <f t="shared" si="127"/>
         <v>-2.3988206915036003E-2</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" ref="O46" si="107">O17/K17-1</f>
+        <f t="shared" ref="O46" si="128">O17/K17-1</f>
+        <v>4.3496711224273232E-2</v>
+      </c>
+      <c r="P46" s="9">
+        <f t="shared" ref="P46" si="129">P17/L17-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Q46" s="9">
+        <f t="shared" ref="Q46" si="130">Q17/M17-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" ref="R46" si="131">R17/N17-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="P46" s="9">
-        <f t="shared" ref="P46" si="108">P17/L17-1</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="Q46" s="9">
-        <f t="shared" ref="Q46" si="109">Q17/M17-1</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="R46" s="9">
-        <f t="shared" ref="R46" si="110">R17/N17-1</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
       <c r="T46" s="9" t="e">
-        <f t="shared" ref="T46:Y46" si="111">T17/S17-1</f>
+        <f t="shared" ref="T46:X46" si="132">T17/S17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>0.3257038223849853</v>
       </c>
       <c r="V46" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>0.69768646408839752</v>
       </c>
       <c r="W46" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>0.7154479812875012</v>
       </c>
       <c r="X46" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>0.30969883803651888</v>
       </c>
       <c r="Y46" s="9">
@@ -5921,47 +5933,47 @@
         <v>-2.7204417888828547E-2</v>
       </c>
       <c r="Z46" s="9">
-        <f t="shared" ref="Z46:AJ46" si="112">Z17/Y17-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="Z46:AJ46" si="133">Z17/Y17-1</f>
+        <v>3.0600251267972611E-2</v>
       </c>
       <c r="AA46" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB46" s="9">
-        <f t="shared" si="112"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="133"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AC46" s="9">
-        <f t="shared" si="112"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="133"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD46" s="9">
-        <f t="shared" si="112"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="133"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE46" s="9">
-        <f t="shared" si="112"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="133"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF46" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG46" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH46" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI46" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ46" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="133"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -5970,71 +5982,71 @@
         <v>68</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" ref="G47:N47" si="113">G22/G7</f>
+        <f t="shared" ref="G47:N47" si="134">G22/G7</f>
         <v>-1.2223958959560099E-3</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-2.3884372177055153E-2</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-1.7801513128615529E-3</v>
       </c>
       <c r="J47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>-2.2605622823884168E-2</v>
       </c>
       <c r="K47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>4.1899582011381477E-2</v>
       </c>
       <c r="L47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>4.9792059263110082E-2</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>5.4002041601820899E-2</v>
       </c>
       <c r="N47" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="134"/>
         <v>2.254380294064003E-3</v>
       </c>
       <c r="O47" s="9">
-        <f t="shared" ref="O47:R47" si="114">O22/O7</f>
-        <v>2.8795313027457189E-2</v>
+        <f t="shared" ref="O47:R47" si="135">O22/O7</f>
+        <v>5.7053258948681483E-2</v>
       </c>
       <c r="P47" s="9">
-        <f t="shared" si="114"/>
-        <v>3.7060949218002792E-2</v>
+        <f t="shared" si="135"/>
+        <v>2.9610036389888014E-2</v>
       </c>
       <c r="Q47" s="9">
-        <f t="shared" si="114"/>
-        <v>2.5674583211525784E-2</v>
+        <f t="shared" si="135"/>
+        <v>1.8385083231685872E-2</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="114"/>
-        <v>-2.3638694829042718E-2</v>
+        <f t="shared" si="135"/>
+        <v>-2.9809255171577644E-2</v>
       </c>
       <c r="T47" s="9">
-        <f t="shared" ref="T47:Y47" si="115">T22/T7</f>
+        <f t="shared" ref="T47:X47" si="136">T22/T7</f>
         <v>5.6856754921929386E-3</v>
       </c>
       <c r="U47" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-1.9689184636120325E-3</v>
       </c>
       <c r="V47" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>9.1160799723685494E-3</v>
       </c>
       <c r="W47" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-3.5621392228889708E-2</v>
       </c>
       <c r="X47" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="136"/>
         <v>-1.2721531694318295E-2</v>
       </c>
       <c r="Y47" s="9">
@@ -6042,48 +6054,48 @@
         <v>3.6996654381433743E-2</v>
       </c>
       <c r="Z47" s="9">
-        <f t="shared" ref="Z47:AJ47" si="116">Z22/Z7</f>
-        <v>1.7524604422449894E-2</v>
+        <f t="shared" ref="Z47:AJ47" si="137">Z22/Z7</f>
+        <v>1.9242136565571867E-2</v>
       </c>
       <c r="AA47" s="9">
-        <f t="shared" si="116"/>
-        <v>3.3809870741934242E-2</v>
+        <f t="shared" si="137"/>
+        <v>5.3477366529023823E-2</v>
       </c>
       <c r="AB47" s="9">
-        <f t="shared" si="116"/>
-        <v>4.5028075372282067E-2</v>
+        <f t="shared" si="137"/>
+        <v>6.8682602047092006E-2</v>
       </c>
       <c r="AC47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.5052074548329097E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.1630370360199286E-2</v>
       </c>
       <c r="AD47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.5433427534154582E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.3672397382506666E-2</v>
       </c>
       <c r="AE47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.5805852501381391E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.4353762208953358E-2</v>
       </c>
       <c r="AF47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.5330644853414108E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.5019966856351275E-2</v>
       </c>
       <c r="AG47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.484218718647612E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.5669863699742435E-2</v>
       </c>
       <c r="AH47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.4339810244108902E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.6302376585921483E-2</v>
       </c>
       <c r="AI47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.3822863242001945E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.691649335882271E-2</v>
       </c>
       <c r="AJ47" s="9">
-        <f t="shared" si="116"/>
-        <v>5.3290711955383305E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.7511259056390877E-2</v>
       </c>
     </row>
     <row r="48" spans="2:40" x14ac:dyDescent="0.3">
@@ -6091,71 +6103,71 @@
         <v>50</v>
       </c>
       <c r="G48" s="9">
-        <f t="shared" ref="G48:N48" si="117">G28/G27</f>
+        <f t="shared" ref="G48:N48" si="138">G28/G27</f>
         <v>-0.282085561497325</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>7.2119613016710465E-2</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>-6.4880000000001177</v>
       </c>
       <c r="J48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>-2.6816143497758924</v>
       </c>
       <c r="K48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>7.0144240268721514E-2</v>
       </c>
       <c r="L48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>0.23704298915226954</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>0.13279802347127806</v>
       </c>
       <c r="N48" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="138"/>
         <v>-5.9152298850574736</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:R48" si="118">O28/O27</f>
+        <f t="shared" ref="O48:R48" si="139">O28/O27</f>
+        <v>0.16872246696035262</v>
+      </c>
+      <c r="P48" s="9">
+        <f t="shared" si="139"/>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="P48" s="9">
-        <f t="shared" si="118"/>
+      <c r="Q48" s="9">
+        <f t="shared" si="139"/>
         <v>0.05</v>
       </c>
-      <c r="Q48" s="9">
-        <f t="shared" si="118"/>
+      <c r="R48" s="9">
+        <f t="shared" si="139"/>
         <v>0.05</v>
       </c>
-      <c r="R48" s="9">
-        <f t="shared" si="118"/>
-        <v>0.05</v>
-      </c>
       <c r="T48" s="9">
-        <f t="shared" ref="T48:Y48" si="119">T28/T27</f>
+        <f t="shared" ref="T48:X48" si="140">T28/T27</f>
         <v>7.399577167019015E-3</v>
       </c>
       <c r="U48" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>1.3419713095789088E-2</v>
       </c>
       <c r="V48" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>-8.8945362134689714E-3</v>
       </c>
       <c r="W48" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>2.1758358393773117E-2</v>
       </c>
       <c r="X48" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="140"/>
         <v>0.2749140893470603</v>
       </c>
       <c r="Y48" s="9">
@@ -6163,47 +6175,47 @@
         <v>-1.1120689655172402</v>
       </c>
       <c r="Z48" s="9">
-        <f t="shared" ref="Z48:AJ48" si="120">Z28/Z27</f>
-        <v>4.9999999999999892E-2</v>
+        <f t="shared" ref="Z48:AJ48" si="141">Z28/Z27</f>
+        <v>0.11720776691358861</v>
       </c>
       <c r="AA48" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
       <c r="AB48" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
       <c r="AC48" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
       <c r="AD48" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="AE48" s="9">
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
-      <c r="AE48" s="9">
-        <f t="shared" si="120"/>
+      <c r="AF48" s="9">
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
-      <c r="AF48" s="9">
-        <f t="shared" si="120"/>
+      <c r="AG48" s="9">
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
-      <c r="AG48" s="9">
-        <f t="shared" si="120"/>
-        <v>0.1</v>
-      </c>
       <c r="AH48" s="9">
-        <f t="shared" si="120"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="141"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="AI48" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="AJ48" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="141"/>
         <v>0.1</v>
       </c>
     </row>
@@ -6212,71 +6224,71 @@
         <v>51</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" ref="G49:N49" si="121">G29/G27</f>
+        <f t="shared" ref="G49:N49" si="142">G29/G27</f>
         <v>-3.3422459893047984E-2</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>2.9023746701846896E-2</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>0.38400000000000695</v>
       </c>
       <c r="J49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-0.91031390134532797</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-2.3710729104919948E-3</v>
       </c>
       <c r="L49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-2.1695460024106029E-2</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-8.0296479308214659E-3</v>
       </c>
       <c r="N49" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="142"/>
         <v>-7.6867816091954075E-2</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" ref="O49:R49" si="122">O29/O27</f>
+        <f t="shared" ref="O49:R49" si="143">O29/O27</f>
+        <v>-5.2863436123348085E-3</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="143"/>
         <v>0.02</v>
       </c>
-      <c r="P49" s="9">
-        <f t="shared" si="122"/>
+      <c r="Q49" s="9">
+        <f t="shared" si="143"/>
         <v>0.02</v>
       </c>
-      <c r="Q49" s="9">
-        <f t="shared" si="122"/>
-        <v>0.02</v>
-      </c>
       <c r="R49" s="9">
-        <f t="shared" si="122"/>
+        <f t="shared" si="143"/>
         <v>0.2</v>
       </c>
       <c r="T49" s="9">
-        <f t="shared" ref="T49:Y49" si="123">T29/T27</f>
+        <f t="shared" ref="T49:X49" si="144">T29/T27</f>
         <v>0</v>
       </c>
       <c r="U49" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="V49" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="144"/>
         <v>-4.7649301143583775E-2</v>
       </c>
       <c r="W49" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="144"/>
         <v>2.1758358393773117E-2</v>
       </c>
       <c r="X49" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="144"/>
         <v>1.0618556701030204</v>
       </c>
       <c r="Y49" s="9">
@@ -6284,47 +6296,47 @@
         <v>-2.2546419098143214E-2</v>
       </c>
       <c r="Z49" s="9">
-        <f t="shared" ref="Z49:AJ49" si="124">Z29/Z27</f>
-        <v>-2.1777327690981146E-2</v>
+        <f t="shared" ref="Z49:AJ49" si="145">Z29/Z27</f>
+        <v>-6.0383860839073995E-2</v>
       </c>
       <c r="AA49" s="9">
-        <f t="shared" si="124"/>
-        <v>1.9999999999999997E-2</v>
+        <f t="shared" si="145"/>
+        <v>0.02</v>
       </c>
       <c r="AB49" s="9">
-        <f t="shared" si="124"/>
-        <v>1.9999999999999997E-2</v>
+        <f t="shared" si="145"/>
+        <v>0.02</v>
       </c>
       <c r="AC49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AD49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AE49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AF49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AG49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AH49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AI49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
       <c r="AJ49" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="145"/>
         <v>0.02</v>
       </c>
     </row>
@@ -6333,71 +6345,71 @@
         <v>69</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" ref="G50:N50" si="125">G30/G7</f>
+        <f t="shared" ref="G50:N50" si="146">G30/G7</f>
         <v>1.9718648551160334E-2</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>-1.8464317976513149E-2</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>-1.5807743658210908E-2</v>
       </c>
       <c r="J50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>1.7738051932304232E-2</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>7.9199610548757043E-2</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>3.1727207745792525E-2</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>4.7425406228559196E-2</v>
       </c>
       <c r="N50" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="146"/>
         <v>0.32267475591360423</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" ref="O50:R50" si="126">O30/O7</f>
-        <v>2.980559353812734E-2</v>
+        <f t="shared" ref="O50:R50" si="147">O30/O7</f>
+        <v>3.2901347933053764E-2</v>
       </c>
       <c r="P50" s="9">
-        <f t="shared" si="126"/>
-        <v>3.7525631175354811E-2</v>
+        <f t="shared" si="147"/>
+        <v>3.0660064721115744E-2</v>
       </c>
       <c r="Q50" s="9">
-        <f t="shared" si="126"/>
-        <v>2.7079653160919256E-2</v>
+        <f t="shared" si="147"/>
+        <v>2.0360670568387688E-2</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="126"/>
-        <v>-1.5106131302214127E-2</v>
+        <f t="shared" si="147"/>
+        <v>-1.9682448551672994E-2</v>
       </c>
       <c r="T50" s="9">
-        <f t="shared" ref="T50:Y50" si="127">T30/T7</f>
+        <f t="shared" ref="T50:X50" si="148">T30/T7</f>
         <v>7.968431771894105E-2</v>
       </c>
       <c r="U50" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="148"/>
         <v>2.2447776280323278E-2</v>
       </c>
       <c r="V50" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="148"/>
         <v>9.416174530465159E-3</v>
       </c>
       <c r="W50" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="148"/>
         <v>-3.0841452006662416E-2</v>
       </c>
       <c r="X50" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="148"/>
         <v>4.4717005238268699E-4</v>
       </c>
       <c r="Y50" s="9">
@@ -6405,48 +6417,48 @@
         <v>0.12010646280642265</v>
       </c>
       <c r="Z50" s="9">
-        <f t="shared" ref="Z50:AJ50" si="128">Z30/Z7</f>
-        <v>2.0302738584502329E-2</v>
+        <f t="shared" ref="Z50:AJ50" si="149">Z30/Z7</f>
+        <v>1.6416940898583886E-2</v>
       </c>
       <c r="AA50" s="9">
-        <f t="shared" si="128"/>
-        <v>3.1813008556612184E-2</v>
+        <f t="shared" si="149"/>
+        <v>4.9204457179824065E-2</v>
       </c>
       <c r="AB50" s="9">
-        <f t="shared" si="128"/>
-        <v>5.21585901890168E-2</v>
+        <f t="shared" si="149"/>
+        <v>7.3699194297339635E-2</v>
       </c>
       <c r="AC50" s="9">
-        <f t="shared" si="128"/>
-        <v>6.7017331690504431E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.2749831957183995E-2</v>
       </c>
       <c r="AD50" s="9">
-        <f t="shared" si="128"/>
-        <v>6.597652441971727E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.3089569663841414E-2</v>
       </c>
       <c r="AE50" s="9">
-        <f t="shared" si="128"/>
-        <v>6.7421435906544397E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.5013962385167188E-2</v>
       </c>
       <c r="AF50" s="9">
-        <f t="shared" si="128"/>
-        <v>6.3688575265948205E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.2057237402130584E-2</v>
       </c>
       <c r="AG50" s="9">
-        <f t="shared" si="128"/>
-        <v>6.9078169344366433E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.8854999192999023E-2</v>
       </c>
       <c r="AH50" s="9">
-        <f t="shared" si="128"/>
-        <v>7.028297023592045E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.7732768174697912E-2</v>
       </c>
       <c r="AI50" s="9">
-        <f t="shared" si="128"/>
-        <v>6.9251129627274741E-2</v>
+        <f t="shared" si="149"/>
+        <v>8.7749184111605635E-2</v>
       </c>
       <c r="AJ50" s="9">
-        <f t="shared" si="128"/>
-        <v>7.1737884053375653E-2</v>
+        <f t="shared" si="149"/>
+        <v>9.1524667995966452E-2</v>
       </c>
     </row>
   </sheetData>
